--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,9 @@
       <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -447,13 +450,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>pesado</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Men Skinny Fit Green Cotton Blend Trousers</t>
-        </is>
+          <t>Men Slim Fit Beige Lycra Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>489</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +468,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>LEE TEX</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Men Slim Fit Black Cotton Blend Trousers</t>
-        </is>
+          <t>Women Regular Fit Black, Light Green Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>649</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +486,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INDIAN TERRAIN</t>
+          <t>Roadster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Brooklyn Men Slim Fit Black Cotton Blend Trousers</t>
-        </is>
+          <t>Men Regular Fit Grey Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>787</v>
       </c>
     </row>
     <row r="5">
@@ -492,13 +504,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PARK AVENUE</t>
+          <t>PETER ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Men Regular Fit Black Viscose Rayon Trousers</t>
-        </is>
+          <t>Men Slim Fit Black Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1259</v>
       </c>
     </row>
     <row r="6">
@@ -507,13 +522,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Roadster</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Men Slim Fit Beige Cotton Blend Trousers</t>
-        </is>
+          <t>Men Slim Fit Black Viscose Rayon Trousers</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>944</v>
       </c>
     </row>
     <row r="7">
@@ -522,13 +540,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Allen Solly</t>
+          <t>PETER ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Men Slim Fit Grey Cotton Blend Trousers</t>
-        </is>
+          <t>Men Slim Fit Grey Polyester Viscose Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1169</v>
       </c>
     </row>
     <row r="8">
@@ -537,13 +558,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ELANHOOD</t>
+          <t>U.S. POLO ASSN.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Men Regular Fit Black Cotton Blend Trousers</t>
-        </is>
+          <t>Men Slim Fit Multicolor Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1481</v>
       </c>
     </row>
     <row r="9">
@@ -552,13 +576,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>PARK AVENUE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Men Regular Fit Dark Green Polycotton Trousers</t>
-        </is>
+          <t>Men Regular Fit Blue Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1449</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +594,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ELANHOOD</t>
+          <t>Roadster</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Men Regular Fit Black Cotton Blend Trousers</t>
-        </is>
+          <t>Men Regular Fit Grey Pure Cotton Trousers</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1649</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +612,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>Foxter</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Women Regular Fit Dark Green Viscose Rayon Trousers</t>
-        </is>
+          <t>Pack of 2 Women Regular Fit Multicolor Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>699</v>
       </c>
     </row>
     <row r="12">
@@ -597,13 +630,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ADDYVERO</t>
+          <t>LEE TEX</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Cotton Blend Trousers</t>
-        </is>
+          <t>Women Regular Fit Black, White Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>649</v>
       </c>
     </row>
     <row r="13">
@@ -612,13 +648,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>U.S. POLO ASSN.</t>
+          <t>LEE TEX</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Men Slim Fit Grey Pure Cotton Trousers</t>
-        </is>
+          <t>Pack of 2 Women Regular Fit Maroon Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>449</v>
       </c>
     </row>
     <row r="14">
@@ -635,6 +674,9 @@
           <t>Women Regular Fit Black Viscose Rayon Trousers</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>399</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -647,8 +689,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Women Regular Fit Orange Viscose Rayon Trousers</t>
-        </is>
+          <t>Women Regular Fit Dark Green Viscose Rayon Trousers</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>399</v>
       </c>
     </row>
     <row r="16">
@@ -657,13 +702,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>Foxter</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Cotton Blend Trousers</t>
-        </is>
+          <t>Pack of 2 Women Regular Fit Multicolor Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>699</v>
       </c>
     </row>
     <row r="17">
@@ -672,13 +720,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>SASSAFRAS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Men Skinny Fit Dark Blue Cotton Blend Trousers</t>
-        </is>
+          <t>Women Relaxed Pink Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>674</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +738,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VEDANA</t>
+          <t>PARK AVENUE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Women Regular Fit Cream Cotton Blend Trousers</t>
-        </is>
+          <t>Men Relaxed Grey Crepe Trousers</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>720</v>
       </c>
     </row>
     <row r="19">
@@ -702,13 +756,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BEN MARTIN</t>
+          <t>LEE TEX</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Men Slim Mid Rise Light Blue Jeans</t>
-        </is>
+          <t>Pack of 2 Women Regular Fit Purple, Blue Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>449</v>
       </c>
     </row>
     <row r="20">
@@ -717,13 +774,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CYPHUS</t>
+          <t>LEE TEX</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Men Regular Fit Black Cotton Blend Trousers</t>
-        </is>
+          <t>Women Regular Fit Black Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>292</v>
       </c>
     </row>
     <row r="21">
@@ -732,13 +792,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>PUMA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Men Slim Fit Dark Blue Polycotton Trousers</t>
-        </is>
+          <t>Men Solid Grey Track Pants</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1624</v>
       </c>
     </row>
     <row r="22">
@@ -747,13 +810,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VAN HEUSEN SPORT</t>
+          <t>PARK AVENUE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Men Slim Fit Khaki Cotton Blend Trousers</t>
-        </is>
+          <t>Men Regular Fit Beige Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1249</v>
       </c>
     </row>
     <row r="23">
@@ -762,13 +828,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FUBAR</t>
+          <t>PARK AVENUE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Men Slim Fit Pink Cotton Blend Trousers</t>
-        </is>
+          <t>Men Black Viscose Rayon Trousers</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>919</v>
       </c>
     </row>
     <row r="24">
@@ -777,13 +846,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Majestic Man</t>
+          <t>Urbano Fashion</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Men Slim Fit Light Blue Cotton Blend Trousers</t>
-        </is>
+          <t>Men Slim Fit Grey Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>649</v>
       </c>
     </row>
     <row r="25">
@@ -792,13 +864,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>LEVI'S</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Men Skinny Fit Grey Cotton Blend Trousers</t>
-        </is>
+          <t>Men Regular Fit Green Pure Cotton Trousers</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1484</v>
       </c>
     </row>
     <row r="26">
@@ -807,13 +882,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MOONVELLY</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Men Regular Fit Blue Lycra Blend Trousers</t>
-        </is>
+          <t>Men Slim Fit Black Viscose Rayon Trousers</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1049</v>
       </c>
     </row>
     <row r="27">
@@ -822,13 +900,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>CYPHUS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Women Regular Fit Brown Cotton Blend Trousers</t>
-        </is>
+          <t>Men Regular Fit Black Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>399</v>
       </c>
     </row>
     <row r="28">
@@ -837,13 +918,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>LEE TEX</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Women Regular Fit Green Viscose Rayon Trousers</t>
-        </is>
+          <t>Women Regular Fit Black Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>399</v>
       </c>
     </row>
     <row r="29">
@@ -852,13 +936,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VAN HEUSEN</t>
+          <t>PARK AVENUE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Men Slim Fit Dark Blue Viscose Rayon Trousers</t>
-        </is>
+          <t>Men Regular Fit Khaki Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1499</v>
       </c>
     </row>
     <row r="30">
@@ -867,13 +954,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
-        </is>
+          <t>Men Slim Fit White Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>712</v>
       </c>
     </row>
     <row r="31">
@@ -882,13 +972,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>SASSAFRAS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
-        </is>
+          <t>Women Relaxed Light Green Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>674</v>
       </c>
     </row>
     <row r="32">
@@ -897,13 +990,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SASSAFRAS</t>
+          <t>PARK AVENUE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Women Relaxed Black Cotton Blend Trousers</t>
-        </is>
+          <t>Men Slim Fit Grey Polycotton Trousers</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1099</v>
       </c>
     </row>
     <row r="33">
@@ -912,13 +1008,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>Tokyo Talkies</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Men Slim Fit Grey Cotton Blend Trousers</t>
-        </is>
+          <t>Women Regular Fit Light Blue Polycotton Trousers</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>404</v>
       </c>
     </row>
     <row r="34">
@@ -927,13 +1026,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Q-Rious</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Women Regular Fit Pink Cotton Blend Trousers</t>
-        </is>
+          <t>Women Regular Fit Dark Green Viscose Rayon Trousers</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>399</v>
       </c>
     </row>
     <row r="35">
@@ -942,13 +1044,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BEN MARTIN</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Men Regular Mid Rise White Jeans</t>
-        </is>
+          <t>Women Regular Fit Green Viscose Rayon Trousers</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>399</v>
       </c>
     </row>
     <row r="36">
@@ -957,13 +1062,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PROTOCOL</t>
+          <t>Q-Rious</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Men Slim Fit Blue Pure Cotton Trousers</t>
-        </is>
+          <t>Women Regular Fit White Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>399</v>
       </c>
     </row>
     <row r="37">
@@ -972,13 +1080,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>LEE TEX</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Men Skinny Fit Dark Green Cotton Blend Trousers</t>
-        </is>
+          <t>Women Regular Fit Maroon Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>292</v>
       </c>
     </row>
     <row r="38">
@@ -987,13 +1098,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MOONVELLY</t>
+          <t>PARK AVENUE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Men Regular Fit Grey Lycra Blend Trousers</t>
-        </is>
+          <t>Men Regular Fit Dark Blue Viscose Rayon Trousers</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1959</v>
       </c>
     </row>
     <row r="39">
@@ -1002,13 +1116,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CYPHUS</t>
+          <t>PARK AVENUE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Men Regular Fit Grey Cotton Blend Trousers</t>
-        </is>
+          <t>Men Skinny Fit Green Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1649</v>
       </c>
     </row>
     <row r="40">
@@ -1017,13 +1134,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FUBAR</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Men Slim Fit Blue Cotton Blend Trousers</t>
-        </is>
+          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>399</v>
       </c>
     </row>
     <row r="41">
@@ -1032,13 +1152,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>PUMA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Men Regular Fit Black Polycotton Trousers</t>
-        </is>
+          <t>Men Solid Black Track Pants</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1624</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,25 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pesado</t>
+          <t>LEE TEX</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Men Slim Fit Beige Lycra Blend Trousers</t>
+          <t>Women Regular Fit Black Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>489</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -473,209 +473,209 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black, Light Green Cotton Blend Trousers</t>
+          <t>Women Regular Fit Maroon Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>649</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Roadster</t>
+          <t>POPWINGS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Men Regular Fit Grey Cotton Blend Trousers</t>
+          <t>Women Regular Fit Multicolor Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>787</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>GRECIILOOKS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Men Slim Fit Black Cotton Blend Trousers</t>
+          <t>Women's Yoga Dress Pants Stretchy Work Slacks Business Casual Office Straight Leg/Boot-Cut Elastic Waist Regular Fit Trouser Pant (XS, Green) (XS, Pink)</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1259</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>NEMO FASHION</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Men Slim Fit Black Viscose Rayon Trousers</t>
+          <t>Premium Polyester Men’s Jogger Regular Fit Track Pants for Men, Stretchable Joggers, Gym, Sports, and Yoga Wear.</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>944</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Men Slim Fit Grey Polyester Viscose Blend Trousers</t>
+          <t>Women Polyester Blend Green Solid Trousers</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1169</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>U.S. POLO ASSN.</t>
+          <t>AVOLT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Men Slim Fit Multicolor Cotton Blend Trousers</t>
+          <t>Dry Fit Track Pants Combo I Slim Fit Sports Track Pants</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1481</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PARK AVENUE</t>
+          <t>Cloth Theory</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Men Regular Fit Blue Cotton Blend Trousers</t>
+          <t>Boy's Regular Track Pants</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1449</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Roadster</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Men Regular Fit Grey Pure Cotton Trousers</t>
+          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1649</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Foxter</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pack of 2 Women Regular Fit Multicolor Cotton Blend Trousers</t>
+          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>699</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LEE TEX</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black, White Cotton Blend Trousers</t>
+          <t>Women Regular Fit Dark Green Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>649</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LEE TEX</t>
+          <t>JUGULAR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pack of 2 Women Regular Fit Maroon Cotton Blend Trousers</t>
+          <t>Men's Slim Fit Cotton Track Pant</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>449</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>POPWINGS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
+          <t>Women Relaxed Brown Polycotton Trousers</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15">
@@ -684,12 +684,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>ADDYVERO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Women Regular Fit Dark Green Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Black Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -698,128 +698,128 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Foxter</t>
+          <t>CYPHUS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pack of 2 Women Regular Fit Multicolor Cotton Blend Trousers</t>
+          <t>Men Regular Fit Black Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>699</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SASSAFRAS</t>
+          <t>CYPHUS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Women Relaxed Pink Cotton Blend Trousers</t>
+          <t>Men Regular Fit Cream Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>674</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PARK AVENUE</t>
+          <t>TOPLOT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Men Relaxed Grey Crepe Trousers</t>
+          <t>Men's Regular Fit Trackpant (Track-Pant-5070)</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>720</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LEE TEX</t>
+          <t>CYPHUS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Pack of 2 Women Regular Fit Purple, Blue Cotton Blend Trousers</t>
+          <t>Men Regular Fit Grey Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>449</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LEE TEX</t>
+          <t>ENDEAVOUR WEAR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Cotton Blend Trousers</t>
+          <t>Men's Regular Fit Trackpants</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>292</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PUMA</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Men Solid Grey Track Pants</t>
+          <t>Women Regular Fit Brown Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1624</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PARK AVENUE</t>
+          <t>FRANKO ROGER</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Men Regular Fit Beige Cotton Blend Trousers</t>
+          <t>Men Slim Fit Black Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1249</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23">
@@ -828,340 +828,2302 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PARK AVENUE</t>
+          <t>ELANHOOD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Men Black Viscose Rayon Trousers</t>
+          <t>Men Regular Fit Black Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>919</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Urbano Fashion</t>
+          <t>JPM brothers</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Men Slim Fit Grey Cotton Blend Trousers</t>
+          <t>Mens Regular Fit Lycra Pant</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>649</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LEVI'S</t>
+          <t>AKIKO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Men Regular Fit Green Pure Cotton Trousers</t>
+          <t>Women Regular Fit White Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1484</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Men Slim Fit Black Viscose Rayon Trousers</t>
+          <t>Men's Regular Track Pants</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1049</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CYPHUS</t>
+          <t>DBURKE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Men Regular Fit Black Cotton Blend Trousers</t>
+          <t>Track Pants for Mens Track Pants Men Track Pants for Mens Sports Sports Track Pants Lower for Mens and Women</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>399</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LEE TEX</t>
+          <t>Aahwan</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Cotton Blend Trousers</t>
+          <t>Women's &amp; Girls' Solid Split Hem Flare Leg Pants Trouser</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>399</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PARK AVENUE</t>
+          <t>BLUE STAR SHARK</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Men Regular Fit Khaki Cotton Blend Trousers</t>
+          <t>Men's Lycra Stretchable Regular Fit Joggers Navy Track Pant Lower</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1499</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>JUGULAR</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Men Slim Fit White Cotton Blend Trousers</t>
+          <t>Men's Slim Fit Track pants</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>712</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SASSAFRAS</t>
+          <t>Laabha</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Women Relaxed Light Green Cotton Blend Trousers</t>
+          <t>Solid Track Pants</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>674</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PARK AVENUE</t>
+          <t>Laabha</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Men Slim Fit Grey Polycotton Trousers</t>
+          <t>Solid Track Pants</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1099</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tokyo Talkies</t>
+          <t>Hubberholme</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Women Regular Fit Light Blue Polycotton Trousers</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>404</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>ENDEAVOUR WEAR</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Women Regular Fit Dark Green Viscose Rayon Trousers</t>
+          <t>Men's Regular Fit Trackpants</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>399</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>Majestic Man</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Women Regular Fit Green Viscose Rayon Trousers</t>
+          <t>Slim Fit Formal Trousers for Men</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>399</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Q-Rious</t>
+          <t>Chromozome</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Women Regular Fit White Cotton Blend Trousers</t>
+          <t>Men Slim Fit Polyester, Cotton Track Pant</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>399</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LEE TEX</t>
+          <t>Generic</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Women Regular Fit Maroon Cotton Blend Trousers</t>
+          <t>Aruljohti Knits Men's Casual Pant/Sweat Pant/Jogger/Track Pant Cotton Solid Designer Regular Fit Track Pants</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>292</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PARK AVENUE</t>
+          <t>Chromozome</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Men Regular Fit Dark Blue Viscose Rayon Trousers</t>
+          <t>Men's Regular Fit Cotton Track Pants</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1959</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PARK AVENUE</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Men Skinny Fit Green Cotton Blend Trousers</t>
+          <t>Men's Slim Dress Pants</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1649</v>
+        <v>517</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>Enamor</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
+          <t>Essentials E066 Cotton Lounge Jogger for Women</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>399</v>
+        <v>519</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Hubberholme</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Men's Relaxed Track Pants</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Enamor</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Essentials Women's Mid Rise Crop Length Soft &amp; Drapey Stretch Viscose Culottes with Smart Side Slits - E064</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Enamor</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Essentials E060 Women’s Slim Fit Terry Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Men's Slim Casual Trousers</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Tokyo Talkies</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Women Tapered Blue Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Alan Jones Clothing</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Men's Slim Fit Track pants</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Okane</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Men Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Okane</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Men Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>plusS</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Women Track Pants</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>plusS</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Women Track Pants</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Men's Slim Casual Pants</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Chromozome</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Men's Regular Fit Cotton Track Pants</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Peppyzone</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Men's Camouflage Regular Fit Track Pant</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>LEE TEX</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Women Regular Fit Black, White Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SASSAFRAS</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Women Relaxed Black Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Men's Slim Fit Formal Trousers</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MARK LOUIIS</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Men's Regular Fit Track pants</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Smarty Pants</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Women Floral Printed Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>T2F</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Boys Printed Track Pants (Pack of 5)</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Urbano Fashion</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Purple Pure Cotton Trousers</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Smarty Pants</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Women Cotton Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Smarty Pants</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Women Cotton Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Smarty Pants</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Women Cotton Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Zivame</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Neostreak</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Men's Slim Fit Jeans</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SASSAFRAS</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Women Relaxed Pink Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Chromozome</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Men's Regular Fit Track Pants</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Men's Slim Fit Stretchable Jeans</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Foxter</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Pack of 2 Women Regular Fit Multicolor Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Women Track Pants</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Men's Regular Casual Trousers</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Men's Straight Casual Trousers</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Van Heusen</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Athleisure Stretch Lounge Pants With Pockets</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0-DEGREE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Black Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Inkast Denim Co.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Men's Regular Casual Trousers</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Roadster</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Beige Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Smarty Pants</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Women 2-Pcs Printed Night suit</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Smarty Pants</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Women 2-Pcs Printed Night suit</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Whitewhale</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Men's Loose Fit Cotton Trousers</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>MAYSIXTY</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Printed Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>MAYSIXTY</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Printed Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>9rasa</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Cotton Dhoti Pants</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Men's Slim Fit Formal Trousers</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>MAYSIXTY</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Printed Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>HIGHLANDER</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Men Regular Fit Black Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Men's Slim Casual Trousers</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Men Stretch Casual Trouser</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>plusS</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Women Track Pants</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Enamor</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Essentials Women's Mid Rise Slim Fit Straight Leg Breathable Stretch Cotton Lounge Pants with Drawstring and Invisible Zipper Pockets- E014</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Men's Flexi Waist Slim Casual Pants</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Men's Flexi Waist Slim Casual Pants</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>FLYING MACHINE</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Men Solid Black Track Pants</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Hancock</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Checked Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Hancock</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Checked Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Hancock</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Checked Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Van Heusen</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Men's Track Pants</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Gallus</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>PARK AVENUE</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Men Regular Fit Brown Viscose Rayon Trousers</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>SIAPA</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Inkast Denim Co.</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Men's Slim Fit Casual Pants</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SOJANYA</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Men Dhoti Pants</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SOJANYA</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Men Dhoti Pants</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>PUMA</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Men Solid Black Track Pants</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>1624</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SOJANYA</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Men Dhoti Pants</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>SOJANYA</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Men Dhoti Pants</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SOJANYA</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Men Dhoti Pants</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>SOJANYA</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Men Dhoti Pants</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SOJANYA</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Men Dhoti Pants</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SOJANYA</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Men Dhoti Pants</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SOJANYA</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Men Dhoti Pants</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>McHenry</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Men's Solid Formal Regular Fit Wrinkle Free PolyViscose Trousers</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>NAUTICA</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Men Solid Grey Track Pants</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Jockey</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Men's Cotton Track Pants</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Black Viscose Rayon Trousers</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>PETER ENGLAND</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Dark Green Pure Cotton Trousers</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Zivame</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Women Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>PETER ENGLAND</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Dark Blue Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Van Heusen</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Athleisure Men Regular Fit Track Pants - Cotton Rich - Smart Tech, Easy Stain Release, Anti Stat, Ultra Soft, Quick Dry</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Cantabil</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Enamor</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Essentials Womens Mid Rise 7/8th Relaxed Fit Soft &amp; Drapey 4 Way Stretch Viscose Spandex Lounge Pants with 2 Side Pockets- E048</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Van Heusen</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Athleisure Men Regular Fit Track Pants - Cotton Rich - Smart Tech, Easy Stain Release, Anti Stat, Ultra Soft, Quick Dry</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>hummel</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Enamor</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Women Pants</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>nexus</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Printed Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Enamor</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Essentials Women's Slim Fit Mid Rise Crop Length Soft &amp; Drapey Stretch Viscose Culottes with Smart Side Slits - EA64</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Jockey</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Mens Slub Casual Track Pant</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>PETER ENGLAND</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Grey Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>BEEVEE</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Men's Cargos</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>CULTSPORT</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>| AbsoluteFit Abstract Print Tights for Women</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>rock.it</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Speedo</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Contrast Swim Pants</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>rock.it</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Allen Solly</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Grey Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Allen Solly</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Light Blue Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Allen Solly</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Grey Viscose Rayon Trousers</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Allen Solly</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Khaki Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Allen Solly</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Green Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ONLY</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Women Track Pants</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Allen Solly</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Grey Viscose Rayon Trousers</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>United Colors of Benetton</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Light Blue Pure Cotton Trousers</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Jockey</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Puma</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Woven Men'S Training Pants</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Allen Solly</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Blue Viscose Rayon Trousers</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>The Pant Project</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Luxury PV Lycra Stretchable Formal Pants for Men | Stylish Slim Fit Men's Wear Trousers for Office or Party | Mens Fashion Dress Trouser Pant</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>The Pant Project</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Luxury PV Stretchable Casual Pants for Men | Stylish Slim Fit Men's Wear Trousers for Office or Party | Mens Fashion Dress Trouser with Expandable Waist &amp; 4 Way Stretch</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>boohooMAN</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Men Tapered Track Pants</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>boohooMAN</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Men Solid Track Pants</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Puma</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>boohooMAN</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Men Textured Track Pants</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Puma</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>3199</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,1009 +452,1009 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EKAN Kids Sun Protection Beach Party Hat Summer hat For...</t>
+          <t>FabSeasons</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EKAN Kids Sun Protection Beach Party Hat Summer hat For Girls</t>
+          <t>Long Brim Beach and Sun Hat/caps for Women &amp; Girls</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/jv6zi4w0/hat/t/b/h/sun-beach-hat-for-kids-girls-and-boys-use-for-sun-protection-original-imaffta3aj5yhzsu.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71TprK1H-0L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/ekan-kids-sun-protection-beach-party-hat-summer-girls/p/itmffyywwazmuegx?pid=HATFFVZ2RZF5YDNH&amp;lid=LSTHATFFVZ2RZF5YDNHDNBRJN&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;spotlightTagId=BestsellerId_clo%2Fqd8%2F9gi&amp;srno=s_1_37&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATFFVZ2RZF5YDNH.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.amazon.com/FabSeasons-Beach-Women-Girls-Beige/dp/B09P41GMHR/ref=sr_1_33?keywords=hats&amp;qid=1682361416&amp;sr=8-33</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>malvina bucket</t>
+          <t>Generic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>malvina bucket</t>
+          <t>Black Long Visor Baseball caps for men and boys pack of 1</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/cap/d/l/w/free-cap-sf7-original-imagkqfyzkt4rwtm.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51efSJ2FI2L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/malvina-bucket/p/itm431eaea5591d2?pid=HATGAPHDUSEGAAVF&amp;lid=LSTHATGAPHDUSEGAAVFNMLXKZ&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;spotlightTagId=BestsellerId_clo%2Fqd8%2F9gi&amp;srno=s_1_16&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATGAPHDUSEGAAVF.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.amazon.com/Regular-Comfort-Unique-Baseball-Running/dp/B09SX5NMDP/ref=sr_1_34?keywords=hats&amp;qid=1682361416&amp;sr=8-34</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EAGLEBUZZ BLACK COTTON HAT PACK OF 1</t>
+          <t>Generic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EAGLEBUZZ BLACK COTTON HAT PACK OF 1</t>
+          <t>Beyond Trends Cotton Classic Packable Beach Sun Hat Black</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/g/j/7/plain-hat-bucket-hat-free-1-hat-bucket-cotton-super-quality-original-imaggdya7phsya2y.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/31AfHbfkTsL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/eaglebuzz-black-cotton-hat-pack-1/p/itmafa350210a776?pid=HATGGDYAGKPGZ4QH&amp;lid=LSTHATGGDYAGKPGZ4QHRJZSRO&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_10&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATGGDYAGKPGZ4QH.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.amazon.com/Beyond-Trends-Classic-Packable-Black/dp/B0BZPVPYDG/ref=sr_1_32?keywords=hats&amp;qid=1682361416&amp;sr=8-32</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fastic Stylish</t>
+          <t>EKAN Kids Sun Protection Beach Party Hat Summer hat For...</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fastic Stylish</t>
+          <t>EKAN Kids Sun Protection Beach Party Hat Summer hat For Girls</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kupuljk0/cap/i/s/w/free-new-stylish-hat-cap-fenoza-original-imag7s4bayrzpugq.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/jv6zi4w0/hat/t/b/h/sun-beach-hat-for-kids-girls-and-boys-use-for-sun-protection-original-imaffta3aj5yhzsu.jpeg?q=70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/fastic-stylish/p/itm43e9fad0625eb?pid=HATGCJ48BTHNRHBY&amp;lid=LSTHATGCJ48BTHNRHBYG827MO&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_38&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATGCJ48BTHNRHBY.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/ekan-kids-sun-protection-beach-party-hat-summer-girls/p/itmffyywwazmuegx?pid=HATFFVZ2RZF5YDNH&amp;lid=LSTHATFFVZ2RZF5YDNHDNBRJN&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_35&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATFFVZ2RZF5YDNH.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZACHARIAS Bucket Hat</t>
+          <t>Generic</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ZACHARIAS Bucket Hat</t>
+          <t>CAPITEUM Casual wear Printed Bucket Fisherman hat for Men and Women for Summer Unisex Hats/caps</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/klphn680/hat/d/l/5/8-14-years-bucket-hat-1-gbh-beige-8-13-651561-zacharias-original-imagysy5g3ync9f7.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61ehVsvwMhL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/zacharias-bucket-hat/p/itm65042ec6d24bd?pid=HATGYSYEZVGNYUYT&amp;lid=LSTHATGYSYEZVGNYUYTV4P4HY&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_35&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATGYSYEZVGNYUYT.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.amazon.com/CAPITEUM-Casual-Printed-Bucket-Fisherman/dp/B0BRNLJ734/ref=sr_1_37?keywords=hats&amp;qid=1682361416&amp;sr=8-37</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jamont Unisex Bucket Hat Beach Sun Hat Fishing Hat Reve...</t>
+          <t>malvina bucket</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jamont Unisex Bucket Hat Beach Sun Hat Fishing Hat Reversible Double-Side-Wear</t>
+          <t>malvina bucket</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/9/j/x/butterfly-free-1-printed-bk-6-jamont-original-imaghqsp5wbn3wsj.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/cap/d/l/w/free-cap-sf7-original-imagkqfyzkt4rwtm.jpeg?q=70</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/jamont-unisex-bucket-hat-beach-sun-fishing-reversible-double-side-wear/p/itmc67613a80c339?pid=HATGHQSPUAMUQPHN&amp;lid=LSTHATGHQSPUAMUQPHNMJZQQB&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_18&amp;otracker=search&amp;iid=en_Ok3YsuhLQ8MJZb2QjbJrTq0DJLTVukQbYnRhGygg73UnmAR%2FRaMFph54lr95pnKNs5miq0hNhRrZfWTZLOv2bw%3D%3D&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/malvina-bucket/p/itm431eaea5591d2?pid=HATGAPHDUSEGAAVF&amp;lid=LSTHATGAPHDUSEGAAVFNMLXKZ&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;spotlightTagId=BestsellerId_clo%2Fqd8%2F9gi&amp;srno=s_1_26&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGAPHDUSEGAAVF.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jamont Unisex Bucket Hat Beach Sun Hat Fishing Hat Reve...</t>
+          <t>EAGLEBUZZ BLACK COTTON HAT PACK OF 1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jamont Unisex Bucket Hat Beach Sun Hat Fishing Hat Reversible Double-Side-Wear</t>
+          <t>EAGLEBUZZ BLACK COTTON HAT PACK OF 1</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/1/8/w/cow-printed-free-1-printed-bk-6-jamont-original-imaghqru4ztkgfz3.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/g/j/7/plain-hat-bucket-hat-free-1-hat-bucket-cotton-super-quality-original-imaggdya7phsya2y.jpeg?q=70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/jamont-unisex-bucket-hat-beach-sun-fishing-reversible-double-side-wear/p/itm930353ef128f9?pid=HATGHQRVGHVDGGUR&amp;lid=LSTHATGHQRVGHVDGGUROZLUDU&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_17&amp;otracker=search&amp;iid=en_Ok3YsuhLQ8MJZb2QjbJrTq0DJLTVukQbYnRhGygg73U%2B7cMqmvHmElDzCbZEJb%2FpOC3vuBXw%2BBLoMW9ZTXalGw%3D%3D&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/eaglebuzz-black-cotton-hat-pack-1/p/itmafa350210a776?pid=HATGGDYAGKPGZ4QH&amp;lid=LSTHATGGDYAGKPGZ4QHRJZSRO&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_9&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGGDYAGKPGZ4QH.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Missby Sun Hat</t>
+          <t>poshing Bucket Sun Hat Round Cotton Caps for Girls/Wome...</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Missby Sun Hat</t>
+          <t>poshing Bucket Sun Hat Round Cotton Caps for Girls/Women</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kzn17680/hat/e/i/i/adjustable-imp-beach-bucket-sun-hat-free-size-1-imp-hat-imp-hat-original-imagbhx7d8metzfh.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kyuge4w0/hat/e/w/1/round-bucket-cap-free-1-round-black-beret-caps-bucket-hat-original-imagayv3hdkfhfh7.jpeg?q=70</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/missby-sun-hat/p/itm1fe8342894eb8?pid=HATGBHX7AJAUVTJJ&amp;lid=LSTHATGBHX7AJAUVTJJHWCBAP&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_39&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATGBHX7AJAUVTJJ.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/poshing-bucket-sun-hat-round-cotton-caps-girls-women/p/itmd148f30d6f05b?pid=HATGAYV3WYYV3R9G&amp;lid=LSTHATGAYV3WYYV3R9GSMZ6EL&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_31&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGAYV3WYYV3R9G.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZACHARIAS Bucket Cap</t>
+          <t>SHRUSTAM BIRTHDAY CAP</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ZACHARIAS Bucket Cap</t>
+          <t>SHRUSTAM BIRTHDAY CAP</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/km6mxe80/hat/a/2/t/free-size-c-87-black-white-2-c-87-black-white-c-87-black-white-original-imagf5fr3akyn9en.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l12h1u80/hat/9/w/8/birthday-caps-1-fancy-cap-with-8-golden-printed-cap-for-birthday-original-imagcpwvhvtg9u2g.jpeg?q=70</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/zacharias-bucket-cap/p/itm11ded306c99b4?pid=HATGF5FRVMW9V4ZN&amp;lid=LSTHATGF5FRVMW9V4ZN1LCTST&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_29&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATGF5FRVMW9V4ZN.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/shrustam-birthday-cap/p/itm279effb64c2ec?pid=HATGCPWVMZ863VFE&amp;lid=LSTHATGCPWVMZ863VFEKVJRFY&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_17&amp;otracker=search&amp;iid=en_Ur19pXIJ0%2BOBHqBGmNTEU0TdU%2BCToejHhuCI56v3yzBytJwTBCQMAUnUFdtrxPgEzIGPij%2BtIuBc5cgvoSAXDw%3D%3D&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jamont Unisex Bucket Hat Beach Sun Hat Fishing Hat Reve...</t>
+          <t>SHRUSTAM BIRTHDAY CAP</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jamont Unisex Bucket Hat Beach Sun Hat Fishing Hat Reversible Double-Side-Wear</t>
+          <t>SHRUSTAM BIRTHDAY CAP</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l3os4280/hat/d/o/v/cow-reversible-free-1-buk-5003-bk-3-jamont-original-imageqxxssdu8fga.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l4d2ljk0/hat/c/q/h/birthday-caps-1-fancy-pink-cap-with-8-printed-red-cap-for-original-imagfa93e53xy7ng.jpeg?q=70</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/jamont-unisex-bucket-hat-beach-sun-fishing-reversible-double-side-wear/p/itm67d0876ed2897?pid=HATGEQXXZMEWXZPC&amp;lid=LSTHATGEQXXZMEWXZPCENI9QO&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_11&amp;otracker=search&amp;iid=en_Ok3YsuhLQ8MJZb2QjbJrTq0DJLTVukQbYnRhGygg73WH9KOHZaK0KrGeWypxED%2FmqPRKjgTrW1dkEP%2BYy5PLPQ%3D%3D&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/shrustam-birthday-cap/p/itm3b07c1d1d1257?pid=HATGFA93STMBUBHB&amp;lid=LSTHATGFA93STMBUBHBPUQFMU&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_8&amp;otracker=search&amp;iid=en_Ur19pXIJ0%2BOBHqBGmNTEU0TdU%2BCToejHhuCI56v3yzBVTsrsBNu2nloHnMJnG8kexZ%2FRBf%2FvQKE7svgmle77PA%3D%3D&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ZYOZI Dragon Ball Z Theme Birthday Party Hats, Happy Bi...</t>
+          <t>INFISPACE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ZYOZI Dragon Ball Z Theme Birthday Party Hats, Happy Birthday Cone Party Hats for Kids</t>
+          <t>Girl's 100% Cotton Foldable Bucket Beach Sun Hat with Adjustable Elastic</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/8/s/i/dragon-ball-z-theme-birthday-party-hats-happy-birthday-cone-original-imagnqhewwhsrvat.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/81VaRP+9fCS._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/zyozi-dragon-ball-z-theme-birthday-party-hats-happy-cone-hats-kids/p/itm548d33bcc65f6?pid=HATGNQHGMHCQTYTT&amp;lid=LSTHATGNQHGMHCQTYTTAIDYHO&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_24&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATGNQHGMHCQTYTT.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.amazon.com/INFISPACE%C2%AE-Cotton-Foldable-Adjustable-Elastic/dp/B0974TFGNV/ref=sr_1_50?keywords=hats&amp;qid=1682361416&amp;sr=8-50</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jamont Bucket Hat Beach Fisherman Hats for Women Men, D...</t>
+          <t>Missby</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Jamont Bucket Hat Beach Fisherman Hats for Women Men, Double-Side Reversible</t>
+          <t>Unisex Cotton Packable Summer Long Brim Sun Hat</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l432ikw0/hat/k/t/k/reversible-cow-print-free-size-1-buc-101-reversible-cow-print-original-imagf2hw65vsdnbe.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/21j9kzKGZML._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/jamont-bucket-hat-beach-fisherman-hats-women-men-double-side-reversible/p/itm6d4038e3a60a6?pid=HATGF2HWGNHFHZHH&amp;lid=LSTHATGF2HWGNHFHZHHEN34O4&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_21&amp;otracker=search&amp;iid=en_Ok3YsuhLQ8MJZb2QjbJrTq0DJLTVukQbYnRhGygg73Wv9bshWCG6aAYez9OAr1Yf26PCFsxFnadhuAJkZ29QPg%3D%3D&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.amazon.com/Missby%C2%AE-Unisex-Packable-Sun-Hat/dp/B09TH9TJXQ/ref=sr_1_55?keywords=hats&amp;qid=1682361416&amp;sr=8-55</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Highever Unisex plain cotton foldable beach hat sun hat...</t>
+          <t>INFISPACE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Highever Unisex plain cotton foldable beach hat sun hat bucket hat for women</t>
+          <t>Kid's Fedora Short Brim Straw Hat for Toddler Age- 1 to 4 Years</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l1v1uvk0/hat/v/m/z/black-plain-hat-658-free-2-black-hat-5244-hat-1655-highever-original-imagdbegappebzgn.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61FxM32dUrL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/highever-unisex-plain-cotton-foldable-beach-hat-sun-bucket-women/p/itm0586eab9501e7?pid=HATGDBEGQ42PJDQM&amp;lid=LSTHATGDBEGQ42PJDQMJFT5OH&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_14&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATGDBEGQ42PJDQM.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.amazon.com/INFISPACE-Fedora-Short-Straw-Toddler/dp/B09VDX53V8/ref=sr_1_19?keywords=hats&amp;qid=1682361416&amp;sr=8-19</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bodveraa JAZAA Unisex Fashion Bucket Hat Summer Short B...</t>
+          <t>Missby</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Bodveraa JAZAA Unisex Fashion Bucket Hat Summer Short Brim for Men Women Teens</t>
+          <t>Unisex Cotton Bucket Sun Hat</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/d/m/g/sad-free-1-buk-5002-bk-6-jamont-original-imagm9f7pkdrzgjf.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61qsN6MJq3L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/bodveraa-jazaa-unisex-fashion-bucket-hat-summer-short-brim-men-women-teens/p/itm835e8a872d9c7?pid=HATGM92SFTJY4HGX&amp;lid=LSTHATGM92SFTJY4HGXJHRPIW&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_12&amp;otracker=search&amp;iid=en_Ok3YsuhLQ8MJZb2QjbJrTq0DJLTVukQbYnRhGygg73UqSd0ugBfapsNIEtxXQf5Uu0WbQcBibL4sOTfNTHkb8Q%3D%3D&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.amazon.com/Missby-Unisex-Cotton-Hat-CAP-100_Mustard_Free/dp/B0B3JM82P1/ref=sr_1_31?keywords=hats&amp;qid=1682361416&amp;sr=8-31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jamont Unisex Bucket Hat Beach Sun Hat Fishing Hat Reve...</t>
+          <t>ZACHARIAS Bucket Hat</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Jamont Unisex Bucket Hat Beach Sun Hat Fishing Hat Reversible Double-Side-Wear</t>
+          <t>ZACHARIAS Bucket Hat</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l3khsi80/cap/r/4/8/free-smiley-jamont-original-imagen3y9qgfgcur.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/klphn680/hat/d/l/5/8-14-years-bucket-hat-1-gbh-beige-8-13-651561-zacharias-original-imagysy5g3ync9f7.jpeg?q=70</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/jamont-unisex-bucket-hat-beach-sun-fishing-reversible-double-side-wear/p/itm985a752d4e1c1?pid=HATGEUNCPW3VZFZV&amp;lid=LSTHATGEUNCPW3VZFZVRLOTJG&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_32&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATGEUNCPW3VZFZV.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/zacharias-bucket-hat/p/itm65042ec6d24bd?pid=HATGYSYEZVGNYUYT&amp;lid=LSTHATGYSYEZVGNYUYTV4P4HY&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_24&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGYSYEZVGNYUYT.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Highever Bucket Hat</t>
+          <t>Adorazone</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Highever Bucket Hat</t>
+          <t>Unisex Cotton Bucket Hat (Pack Of 1)</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/3/n/v/bucket-reversible-hat-free-1-latest-reversible-black-daisy-beige-original-imagnhpemfh6hzf8.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71VFv4mqxzS._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/highever-bucket-hat/p/itm862bdf14e7e50?pid=HATGNHPERZBZVFPQ&amp;lid=LSTHATGNHPERZBZVFPQ6L9REX&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_8&amp;otracker=search&amp;iid=en_Ok3YsuhLQ8MJZb2QjbJrTq0DJLTVukQbYnRhGygg73WcnIGIOsTdTTqX%2Fo%2B1wJSoG6ITtA8bj5j%2FrDrIB9xrRg%3D%3D&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.amazon.com/Adorazone-Cotton-Bucket-Travel-Protection/dp/B09HS3PZWC/ref=sr_1_5?keywords=hats&amp;qid=1682361416&amp;sr=8-5</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HANDCUFFS Bucket hat</t>
+          <t>Missby Sun Hat</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HANDCUFFS Bucket hat</t>
+          <t>Missby Sun Hat</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/b/5/x/bts-bucket-hat-men-s-women-s-cotton-bucket-hat-free-1-bts-bucket-original-imagnd4f3dychbgq.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kzn17680/hat/e/i/i/adjustable-imp-beach-bucket-sun-hat-free-size-1-imp-hat-imp-hat-original-imagbhx7d8metzfh.jpeg?q=70</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/handcuffs-bucket-hat/p/itmcb3c7f03f290f?pid=HATGND42BE6MBHWF&amp;lid=LSTHATGND42BE6MBHWFPQPHZ2&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;spotlightTagId=FkPickId_clo%2Fqd8%2F9gi&amp;srno=s_1_33&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATGND42BE6MBHWF.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/missby-sun-hat/p/itm1fe8342894eb8?pid=HATGBHX7AJAUVTJJ&amp;lid=LSTHATGBHX7AJAUVTJJHWCBAP&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_37&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGBHX7AJAUVTJJ.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Minar hat</t>
+          <t>ZACHARIAS Bucket Cap</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Minar hat</t>
+          <t>ZACHARIAS Bucket Cap</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l3os4280/hat/6/s/l/fabseasons-foldable-cotton-fashion-beach-cloche-caps-hats-for-original-imagerfrkv7czuty.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/km6mxe80/hat/a/2/t/free-size-c-87-black-white-2-c-87-black-white-c-87-black-white-original-imagf5fr3akyn9en.jpeg?q=70</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/minar-hat/p/itma03c51a32cb22?pid=HATGEUUD89DUFZPG&amp;lid=LSTHATGEUUD89DUFZPG25BKBD&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_20&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATGEUUD89DUFZPG.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/zacharias-bucket-cap/p/itm11ded306c99b4?pid=HATGF5FRVMW9V4ZN&amp;lid=LSTHATGF5FRVMW9V4ZN1LCTST&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_27&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGF5FRVMW9V4ZN.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Highever Trendy Unisex Embroidered foldable cotton Reve...</t>
+          <t>ZACHARIAS Fishermen Bucket Hat</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Highever Trendy Unisex Embroidered foldable cotton Reversible Bucket Hat</t>
+          <t>ZACHARIAS Fishermen Bucket Hat</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/p/a/x/latest-trendy-bucket-hat-free-1-latest-bucket-hats-ar-4521-original-imagmvesxwrngzxy.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kyoqmq80/hat/p/1/1/xent-purple-free-size-1-xent-purple-51105-zacharias-original-imagavfnwgzh9qyc.jpeg?q=70</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/highever-trendy-unisex-embroidered-foldable-cotton-reversible-bucket-hat/p/itm514b60f20fa01?pid=HATGMVESDYQSJPJH&amp;lid=LSTHATGMVESDYQSJPJHGQPLT3&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_34&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATGMVESDYQSJPJH.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/zacharias-fishermen-bucket-hat/p/itmde9b18be37990?pid=HATGAVFZGTBSVVHD&amp;lid=LSTHATGAVFZGTBSVVHDPBFU5S&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_16&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGAVFZGTBSVVHD.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ZACHARIAS Fishermen Cotton Bucket Hat Cap</t>
+          <t>SHRUSTAM BIRTHDAY CAP</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ZACHARIAS Fishermen Cotton Bucket Hat Cap</t>
+          <t>SHRUSTAM BIRTHDAY CAP</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/jueep3k0/hat/f/e/q/xent-bucket-fawn-free-1-xent-bucket-fawn-2402-zacharias-original-imaffjq4rxengpgp.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l12h1u80/hat/v/v/z/birthday-caps-1-fancy-cap-with-8-golden-printed-cap-for-birthday-original-imagcpsfzqjvhtpe.jpeg?q=70</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/zacharias-fishermen-cotton-bucket-hat-cap/p/itmffjq2ggy8xutb?pid=HATFFJ3G9SPMNFEQ&amp;lid=LSTHATFFJ3G9SPMNFEQZVH1Y6&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_26&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATFFJ3G9SPMNFEQ.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/shrustam-birthday-cap/p/itm533977cf59feb?pid=HATGCPS2TBHEYXYC&amp;lid=LSTHATGCPS2TBHEYXYCDTOI6T&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_12&amp;otracker=search&amp;iid=en_Ur19pXIJ0%2BOBHqBGmNTEU0TdU%2BCToejHhuCI56v3yzDaKsXXxaJTgyWAByagZZUpVSowf1BU6yA3Gm14Ca%2Fiiw%3D%3D&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Party Propz 1st Birthday Cap</t>
+          <t>JAZAA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Party Propz 1st Birthday Cap</t>
+          <t>Bucket Hat for Women Men Teens Summer Beach Sun Hat Packable Fisherman Cap for Travel Outdoor Hiking</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kq18n0w0/hat/d/g/6/3-2-in-glitter-baby-boy-first-birthday-crown-number-1-headband-original-imag44ytuynfvvzc.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/81Cf+LGx6oL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/party-propz-1st-birthday-cap/p/itm694581444d234?pid=HATG44Z6AVAZMXGP&amp;lid=LSTHATG44Z6AVAZMXGPFDEVAJ&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_19&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATG44Z6AVAZMXGP.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.amazon.com/JAZAA-Bucket-Packable-Fisherman-Outdoor/dp/B0B39N362K/ref=sr_1_52?keywords=hats&amp;qid=1682361416&amp;sr=8-52</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Vitota Virat Kohli Inspired Baseball Round Cap For Boys...</t>
+          <t>JAZAA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Vitota Virat Kohli Inspired Baseball Round Cap For Boys Cap</t>
+          <t>Vintage Baseball Cap Snapback Trucker Hat, Outdoor Sports Baseball Hat, Hiking Hat, Running Hat</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kxhvf680/hat/q/c/4/solid-embroidered-hat-caps-wool-cap-classic-black-cap-boys-original-imag9yyh6rhdcgjh.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/519kB2oWAHL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/vitota-virat-kohli-inspired-baseball-round-cap-boys/p/itmcb418abed08c9?pid=HATGA24FGAX3HJER&amp;lid=LSTHATGA24FGAX3HJERSZVWAD&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;spotlightTagId=TrendingId_clo%2Fqd8%2F9gi&amp;srno=s_1_25&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATGA24FGAX3HJER.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.amazon.com/JAZAA-Vintage-Baseball-Snapback-Trucker/dp/B0BR9GF36Y/ref=sr_1_8?keywords=hats&amp;qid=1682361416&amp;sr=8-8</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SF7 Embroidered Casual Cricket Team T20 Umpire Round Co...</t>
+          <t>ZYOZI Dragon Ball Z Theme Birthday Party Hats, Happy Bi...</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SF7 Embroidered Casual Cricket Team T20 Umpire Round Cotton Cap For Men</t>
+          <t>ZYOZI Dragon Ball Z Theme Birthday Party Hats, Happy Birthday Cone Party Hats for Kids</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/cap/8/8/g/free-cricket-umpre-hat-sf7-original-imagkqgarhwhkn4j.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/8/s/i/dragon-ball-z-theme-birthday-party-hats-happy-birthday-cone-original-imagnqhewwhsrvat.jpeg?q=70</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/sf7-embroidered-casual-cricket-team-t20-umpire-round-cotton-cap-men/p/itm22ad4fa883ab4?pid=HATGH4ZVAZHXS9YT&amp;lid=LSTHATGH4ZVAZHXS9YTX1EEQY&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_30&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATGH4ZVAZHXS9YT.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/zyozi-dragon-ball-z-theme-birthday-party-hats-happy-cone-hats-kids/p/itm548d33bcc65f6?pid=HATGNQHGMHCQTYTT&amp;lid=LSTHATGNQHGMHCQTYTTAIDYHO&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_33&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGNQHGMHCQTYTT.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ZACHARIAS Fishermen Cotton Bucket Hat Cap</t>
+          <t>Highever Daisy Sunflower Embroidered Unisex foldable co...</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ZACHARIAS Fishermen Cotton Bucket Hat Cap</t>
+          <t>Highever Daisy Sunflower Embroidered Unisex foldable cotton Reversible Bucket Hat</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/juh9ksw0/hat/z/y/y/bucket-black-free-1-10-2402-zacharias-original-imaffhjgdzykhyee.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kyj0vbk0/hat/j/4/v/stylish-latest-reversible-cotton-bucket-hat-free-1-hat-one-original-imagaq5f6h55z663.jpeg?q=70</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/zacharias-fishermen-cotton-bucket-hat-cap/p/itmffhjgweanfz7b?pid=HATFFJ4B9H8T8ZYY&amp;lid=LSTHATFFJ4B9H8T8ZYYZA7B7S&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_2&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATFFJ4B9H8T8ZYY.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/highever-daisy-sunflower-embroidered-unisex-foldable-cotton-reversible-bucket-hat/p/itm9345ba879e0f6?pid=HATGAQ5GG5Z3XUVG&amp;lid=LSTHATGAQ5GG5Z3XUVGATTIXA&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_40&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGAQ5GG5Z3XUVG.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VRITRAZ Beautiful straw hat spring summer children baby...</t>
+          <t>Pelo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>VRITRAZ Beautiful straw hat spring summer children baby boy girl kids unisex printed cartoon fancy dress cap Bear Blue</t>
+          <t>Fedora Hat for Men and Women UV Protection Summer Hat Travel Use Cream</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/jskofww0/hat/j/y/j/beautiful-straw-summer-hat-cap-bear-blue-50-54-cm-19-7-21-3-original-imafe3ufcwzbjzpj.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51yTl8N3RwL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/vritraz-beautiful-straw-hat-spring-summer-children-baby-boy-girl-kids-unisex-printed-cartoon-fancy-dress-cap-bear-blue/p/itmfe3tzyhnzqwdu?pid=HATFEF2TDYRVKJYJ&amp;lid=LSTHATFEF2TDYRVKJYJ5SX1U7&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_7&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATFEF2TDYRVKJYJ.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.amazon.com/Pelo-Latest-Women-Straw-Bowknot/dp/B07TSPRGFJ/ref=sr_1_18?keywords=hats&amp;qid=1682361416&amp;sr=8-18</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>XYTECH Fedora Hat</t>
+          <t>Highever Unisex plain cotton foldable beach hat sun hat...</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>XYTECH Fedora Hat</t>
+          <t>Highever Unisex plain cotton foldable beach hat sun hat bucket hat for women</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/o/s/o/free-fedora-hat-1-bac-60-857-fedora-399-xytech-original-imagzrdh52cbem36.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l1v1uvk0/hat/v/m/z/black-plain-hat-658-free-2-black-hat-5244-hat-1655-highever-original-imagdbegappebzgn.jpeg?q=70</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/xytech-fedora-hat/p/itme69c6cc1ee35d?pid=HATGZRDHAHPTXWMG&amp;lid=LSTHATGZRDHAHPTXWMGVGUUH5&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_22&amp;otracker=search&amp;iid=en_Ok3YsuhLQ8MJZb2QjbJrTq0DJLTVukQbYnRhGygg73W%2Bp2QTUb6ADCWg0NxPnAf%2ByKAePdqbA%2BOiZGl4KaS8MQ%3D%3D&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/highever-unisex-plain-cotton-foldable-beach-hat-sun-bucket-women/p/itm0586eab9501e7?pid=HATGDBEGQ42PJDQM&amp;lid=LSTHATGDBEGQ42PJDQMJFT5OH&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_38&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGDBEGQ42PJDQM.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>XYTECH Cowboy fedora cap</t>
+          <t>JAZAA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>XYTECH Cowboy fedora cap</t>
+          <t>Bucket Hat for Women Men Teens Reversible Summer Beach Sun Hat Packable Fisherman Cap for Travel Outdoor Hiking</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/l/6/5/free-akj-857-1-beg-57-857-cap-xytech-original-imagzh8z7u2dayvb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51ptBj-beVL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/xytech-cowboy-fedora-cap/p/itm422f2cc3d09ae?pid=HATGZRCZEEB3HJHJ&amp;lid=LSTHATGZRCZEEB3HJHJ32BGJL&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_27&amp;otracker=search&amp;iid=en_Ok3YsuhLQ8MJZb2QjbJrTq0DJLTVukQbYnRhGygg73WqI44rJ1xGqTLFChzgw5flnStkW9%2FpA%2Fg97hlfcYo5tA%3D%3D&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.amazon.com/JAZAA-Reversible-Packable-Fisherman-Outdoor/dp/B0BJ343QJB/ref=sr_1_10?keywords=hats&amp;qid=1682361416&amp;sr=8-10</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>XYTECH Fedora Hat</t>
+          <t>ZACHARIAS Fishermen Cotton Bucket Printed Hat Cap</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>XYTECH Fedora Hat</t>
+          <t>ZACHARIAS Fishermen Cotton Bucket Printed Hat Cap</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/a/i/r/m-fedora-d-587-1-hat-59-857-fedora-hat-xytech-original-imagzrd7ypvtygmb.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/klicfww0/hat/r/l/3/free-size-printed-bucket-02-1-printed-bucket-02-2402-zacharias-original-imagym2czmfphztf.jpeg?q=70</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/xytech-fedora-hat/p/itm39bad05df68cd?pid=HATGZRDCGXJXB8S8&amp;lid=LSTHATGZRDCGXJXB8S8TEF6IR&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_28&amp;otracker=search&amp;iid=en_Ok3YsuhLQ8MJZb2QjbJrTq0DJLTVukQbYnRhGygg73XR9DBXfz%2BaXzbwynF%2BsOE%2FLBQq%2BZlqd3SpV8z3xX0p%2FA%3D%3D&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/zacharias-fishermen-cotton-bucket-printed-hat-cap/p/itmf56b8258d1637?pid=HATGYM2CZWYYDKRP&amp;lid=LSTHATGYM2CZWYYDKRPEO1YWU&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_39&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGYM2CZWYYDKRP.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fasholic BTS Bucket Hat Stylish Cotton Hat Lightweight ...</t>
+          <t>RR DESIGN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fasholic BTS Bucket Hat Stylish Cotton Hat Lightweight Outdoor Summer Beach Unisex Hat</t>
+          <t>Caps &amp; Hats Summer Collection</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/0/v/v/free-size-bts-bucket-hat-women-s-hat-everyday-stylish-cotton-hat-original-imagzkjax5axdgqt.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51XKF9B9-DL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/fasholic-bts-bucket-hat-stylish-cotton-lightweight-outdoor-summer-beach-unisex/p/itmfa2ffdc3b0e04?pid=HATGZKJBAFUNWUHR&amp;lid=LSTHATGZKJBAFUNWUHRI2KVM6&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_4&amp;otracker=search&amp;iid=en_Ok3YsuhLQ8MJZb2QjbJrTq0DJLTVukQbYnRhGygg73WxuoEnvwrVbizgk32KRziElaDLJcKHPJx7KgEGfhi3Eg%3D%3D&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.amazon.com/RR-DESIGN-Western-Fashion-Men-Pack/dp/B0BTBKCL62/ref=sr_1_6?keywords=hats&amp;qid=1682361416&amp;sr=8-6</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Zipper-G Unisex Cotton Bucket Hat Trendy Lightweight Ou...</t>
+          <t>Handcuffs</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Zipper-G Unisex Cotton Bucket Hat Trendy Lightweight Outdoor Hot Fun Summer Beach Vacation Headwear</t>
+          <t>Women's Cotton Bucket Hat</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/ktg4ia80/hat/7/o/x/unisex-bucket-hat-free-size-1-solid-brown-trendy-lightweight-original-imag6sz3fyjpvwc8.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51FqqpBMFTL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/zipper-g-unisex-cotton-bucket-hat-trendy-lightweight-outdoor-hot-fun-summer-beach-vacation-headwear/p/itmb3def5da9f882?pid=HATG6SZ3SDFZZZNE&amp;lid=LSTHATG6SZ3SDFZZZNEZFWH8O&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_31&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATG6SZ3SDFZZZNE.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.amazon.com/Handcuffs-Womens-Bucket-Little-Fisherman/dp/B09LQV8PF4/ref=sr_1_13?keywords=hats&amp;qid=1682361416&amp;sr=8-13</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Zipper-G Unisex Cotton Bucket Hat for Hot Fun Summer Be...</t>
+          <t>X-LENT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Zipper-G Unisex Cotton Bucket Hat for Hot Fun Summer Beach Headwear</t>
+          <t>Latest Embroidered Baseball Caps Sports Caps</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>389</v>
+        <v>299</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/8/0/d/unisex-bucket-hat-free-size-1-navy-blue-trendy-lightweight-original-imaghyvh2ybzefmz.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51Q7afM70qL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/zipper-g-unisex-cotton-bucket-hat-hot-fun-summer-beach-headwear/p/itm394c0a2930520?pid=HATGHYVHDU4SDG3D&amp;lid=LSTHATGHYVHDU4SDG3DWEOUA2&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_40&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATGHYVHDU4SDG3D.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NDMyNjU0MjY0NDQxODIwOjE2ODIzNjE0MTc6c3BfbXRmOjIwMTMyNjc3MjM1MTk4OjowOjo&amp;url=%2FX-LENT-Latest-Embroidered-Baseball-Sports%2Fdp%2FB0BZ543DD4%2Fref%3Dsr_1_22_sspa%3Fkeywords%3Dhats%26qid%3D1682361416%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SYGA Fancy Round Cap</t>
+          <t>Zacharias</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SYGA Fancy Round Cap</t>
+          <t>Men's &amp; Women's Cotton Bucket Fishermen Beach Cap Hat (Pack of 1) (X-01)</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/k1tm1e80/hat/j/w/z/medium-straw-hats-for-baby-girls-pink-1-fancyroundcap-pink-original-imafhbgkxgehxum5.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71iHtAx+HpL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/syga-fancy-round-cap/p/itm0767436538d19?pid=HATFHB8RYZS9QJWZ&amp;lid=LSTHATFHB8RYZS9QJWZZX4ZLI&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_15&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATFHB8RYZS9QJWZ.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NDMyNjU0MjY0NDQxODIwOjE2ODIzNjE0MTc6c3BfbXRmOjIwMDMxNDUxNTI0NDk4OjowOjo&amp;url=%2FZacharias-Womens-Cotton-Fishermen-XE_Beige_Free%2Fdp%2FB08YN2ZFRL%2Fref%3Dsr_1_24_sspa%3Fkeywords%3Dhats%26qid%3D1682361416%26sr%3D8-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ZACHARIAS Fedora</t>
+          <t>FASHER REVERSIBLE BUCKET</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ZACHARIAS Fedora</t>
+          <t>FASHER REVERSIBLE BUCKET</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/k6i7zww0/hat/v/u/x/free-size-fedora-58-black-po2-2-fedora-58-black-po2-fedora-58-original-imafzyjhp8hvgcr7.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/cap/l/v/m/free-smiley-bucket-fasher-original-imagnhe8uzgxht4f.jpeg?q=70</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/zacharias-fedora/p/itm68609574e71c1?pid=HATFZYJH25WQCVUX&amp;lid=LSTHATFZYJH25WQCVUXLLZXQV&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_13&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATFZYJH25WQCVUX.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/fasher-reversible-bucket/p/itmcab46b10b8127?pid=HATGNHGA5EC9HJAC&amp;lid=LSTHATGNHGA5EC9HJACNZCJAH&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;spotlightTagId=TrendingId_clo%2Fqd8%2F9gi&amp;srno=s_1_30&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGNHGA5EC9HJAC.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ZACHARIAS Cotton Round Hat</t>
+          <t>Zipper-G Unisex Cotton Bucket Hat Trendy Outdoor Summer...</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ZACHARIAS Cotton Round Hat</t>
+          <t>Zipper-G Unisex Cotton Bucket Hat Trendy Outdoor Summer Beach Vacation Headwear</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/k7tdj0w0/hat/v/z/z/free-classic-dori-hat-beige-1-classic-dori-hat-beige-classic-original-imafpyth4hddk5hn.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l1xwqkw0/hat/b/a/z/unisex-bucket-hat-free-size-1-olive-green-trendy-lightweight-original-imagdehpkpe9p5ez.jpeg?q=70</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/zacharias-cotton-round-hat/p/itmd91c639d9e193?pid=HATFPYRGJY35JVZZ&amp;lid=LSTHATFPYRGJY35JVZZGPRBIK&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_9&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATFPYRGJY35JVZZ.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/zipper-g-unisex-cotton-bucket-hat-trendy-outdoor-summer-beach-vacation-headwear/p/itm6ada483723ce0?pid=HATGDEHPQAURAV5Z&amp;lid=LSTHATGDEHPQAURAV5ZWIWVYA&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_11&amp;otracker=search&amp;iid=en_Ur19pXIJ0%2BOBHqBGmNTEU0TdU%2BCToejHhuCI56v3yzACnG7QgWUMJV8OzQFACIq4bvXq3hc5yG8p7bxcfv%2Bisg%3D%3D&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ZACHARIAS Fedora Hat Pack of 2</t>
+          <t>ZACHARIAS Fishermen Cotton Bucket Hat Cap</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ZACHARIAS Fedora Hat Pack of 2</t>
+          <t>ZACHARIAS Fishermen Cotton Bucket Hat Cap</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/knan98w0/cap/s/1/j/free-hat-08-black-cream-stylathon-original-imag2yfumzymjnqy.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/jueep3k0/hat/f/e/q/xent-bucket-fawn-free-1-xent-bucket-fawn-2402-zacharias-original-imaffjq4rxengpgp.jpeg?q=70</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/zacharias-fedora-hat-pack-2/p/itmf610874dc1ae6?pid=HATGH7WSANMUU6FF&amp;lid=LSTHATGH7WSANMUU6FFLNQWDR&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_5&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATGH7WSANMUU6FF.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/zacharias-fishermen-cotton-bucket-hat-cap/p/itmffjq2ggy8xutb?pid=HATFFJ3G9SPMNFEQ&amp;lid=LSTHATFFJ3G9SPMNFEQZVH1Y6&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_32&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATFFJ3G9SPMNFEQ.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ZACHARIAS Cotton Cowboy Hat</t>
+          <t>HANDCUFFS Bucket hat</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ZACHARIAS Cotton Cowboy Hat</t>
+          <t>HANDCUFFS Bucket hat</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/ky7lci80/hat/7/j/z/hat-5168-dark-blue-free-size-1-hat-5168-dark-blue-5168-zacharias-original-imagahqgfxyrzrzc.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/b/5/x/bts-bucket-hat-men-s-women-s-cotton-bucket-hat-free-1-bts-bucket-original-imagnd4f3dychbgq.jpeg?q=70</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/zacharias-cotton-cowboy-hat/p/itm4c1c8a68c761a?pid=HATGAHQK8HNBNHYX&amp;lid=LSTHATGAHQK8HNBNHYXIWCB5N&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_3&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATGAHQK8HNBNHYX.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/handcuffs-bucket-hat/p/itmcb3c7f03f290f?pid=HATGND42BE6MBHWF&amp;lid=LSTHATGND42BE6MBHWFPQPHZ2&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_14&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGND42BE6MBHWF.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
@@ -1464,81 +1464,3161 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HASTHIP Plush Animal Bunny Dancing Ears Hat, Rabbit Mov...</t>
+          <t>Minar hat</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HASTHIP Plush Animal Bunny Dancing Ears Hat, Rabbit Moving Ear Flaps and Press Paws</t>
+          <t>Minar hat</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>499</v>
+        <v>299</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/7/b/d/plush-animal-bunny-dancing-ears-hat-rabbit-moving-ear-flaps-and-original-imagbxvzebnha8zd.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l3os4280/hat/6/s/l/fabseasons-foldable-cotton-fashion-beach-cloche-caps-hats-for-original-imagerfrkv7czuty.jpeg?q=70</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/hasthip-plush-animal-bunny-dancing-ears-hat-rabbit-moving-ear-flaps-press-paws/p/itma553678bae79e?pid=HATGHBJ6XGTKZ3H5&amp;lid=LSTHATGHBJ6XGTKZ3H5DIVYGK&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_6&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATGHBJ6XGTKZ3H5.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/minar-hat/p/itma03c51a32cb22?pid=HATGEUUD89DUFZPG&amp;lid=LSTHATGEUUD89DUFZPG25BKBD&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_6&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGEUUD89DUFZPG.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Futurekart Sun hat for men</t>
+          <t>Zipper-G Unisex Cotton Bucket Hat Trendy Lightweight Ou...</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Futurekart Sun hat for men</t>
+          <t>Zipper-G Unisex Cotton Bucket Hat Trendy Lightweight Outdoor Hot Fun Summer Beach Vacation Headwear</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>659</v>
+        <v>299</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kwfaj680/hat/9/u/b/sun-protection-cap-for-men-beach-fishing-hat-summer-hat-for-men-original-imag93frgfg9rfe2.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/ktg4ia80/hat/1/w/j/unisex-bucket-hat-free-size-1-lime-trendy-lightweight-outdoor-original-imag6szahztht4ku.jpeg?q=70</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/futurekart-sun-hat-men/p/itm06734777a5241?pid=HATG93FRKPJF68VZ&amp;lid=LSTHATG93FRKPJF68VZFYGXI4&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_23&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATG93FRKPJF68VZ.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+          <t>https://www.flipkart.com/zipper-g-unisex-cotton-bucket-hat-trendy-lightweight-outdoor-hot-fun-summer-beach-vacation-headwear/p/itm9536bf0b46661?pid=HATG6SZAP6QUVEHY&amp;lid=LSTHATG6SZAP6QUVEHYILYZ2Z&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_21&amp;otracker=search&amp;iid=en_Ur19pXIJ0%2BOBHqBGmNTEU0TdU%2BCToejHhuCI56v3yzCCYKD%2BQaIcKeibpg8WfCpF5YrsPP4vvtsA1n6SH8mGQQ%3D%3D&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Party Propz 1st Birthday Cap</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Party Propz 1st Birthday Cap</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>316</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/kq18n0w0/hat/d/g/6/3-2-in-glitter-baby-boy-first-birthday-crown-number-1-headband-original-imag44ytuynfvvzc.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/party-propz-1st-birthday-cap/p/itm694581444d234?pid=HATG44Z6AVAZMXGP&amp;lid=LSTHATG44Z6AVAZMXGPFDEVAJ&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_19&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATG44Z6AVAZMXGP.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SHRUSTAM BIRTHDAY CAP</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SHRUSTAM BIRTHDAY CAP</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>324</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/l1xwqkw0/hat/l/h/l/birthday-caps-1-fancy-cap-with-12-golden-printed-cap-for-original-imagde7gzcpjf5fk.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/shrustam-birthday-cap/p/itm9cee1db36dff9?pid=HATGDE7HH9FZZWS5&amp;lid=LSTHATGDE7HH9FZZWS5O0S6CR&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_4&amp;otracker=search&amp;iid=en_Ur19pXIJ0%2BOBHqBGmNTEU0TdU%2BCToejHhuCI56v3yzCcXLK4L5AM%2BWSLut%2BK8fhTxKmLbd5oCqpnBoXmMrjgkQ%3D%3D&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Vitota Virat Kohli Inspired Baseball Round Cap For Boys...</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Vitota Virat Kohli Inspired Baseball Round Cap For Boys Cap</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>325</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/kxhvf680/hat/q/c/4/solid-embroidered-hat-caps-wool-cap-classic-black-cap-boys-original-imag9yyh6rhdcgjh.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/vitota-virat-kohli-inspired-baseball-round-cap-boys/p/itmcb418abed08c9?pid=HATGA24FGAX3HJER&amp;lid=LSTHATGA24FGAX3HJERSZVWAD&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_36&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGA24FGAX3HJER.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ZACHARIAS Fishermen Cotton Bucket Hat Cap</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ZACHARIAS Fishermen Cotton Bucket Hat Cap</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>325</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/juh9ksw0/hat/z/y/y/bucket-black-free-1-10-2402-zacharias-original-imaffhjgdzykhyee.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/zacharias-fishermen-cotton-bucket-hat-cap/p/itmffhjgweanfz7b?pid=HATFFJ4B9H8T8ZYY&amp;lid=LSTHATFFJ4B9H8T8ZYYZA7B7S&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_3&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATFFJ4B9H8T8ZYY.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>NUEVOSDAMAS</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Women Rayon Solid Hat | Bucket Style Hat| Summer Sun Hat | Beach Wear Garden Hat | Foldable Hat for Outdoor | Sun Protection Hat for Women and Girls</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>325</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/91mCN9TUEaL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/NUEVOSDAMAS-Women-Floral-Printed-Rayon/dp/B095KN6C8B/ref=sr_1_15?keywords=hats&amp;qid=1682361416&amp;sr=8-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>VRITRAZ Beautiful straw hat spring summer children baby...</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>VRITRAZ Beautiful straw hat spring summer children baby boy girl kids unisex printed cartoon fancy dress cap Bear Blue</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>325</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/jskofww0/hat/j/y/j/beautiful-straw-summer-hat-cap-bear-blue-50-54-cm-19-7-21-3-original-imafe3ufcwzbjzpj.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/vritraz-beautiful-straw-hat-spring-summer-children-baby-boy-girl-kids-unisex-printed-cartoon-fancy-dress-cap-bear-blue/p/itmfe3tzyhnzqwdu?pid=HATFEF2TDYRVKJYJ&amp;lid=LSTHATFEF2TDYRVKJYJ5SX1U7&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_20&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATFEF2TDYRVKJYJ.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>JAZAA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Unisex Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>329</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71BjpoqL5SL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/JAZAA-Unisex-Cotton-BUC_Black-White_Free/dp/B0B4S6WX7F/ref=sr_1_25?keywords=hats&amp;qid=1682361416&amp;sr=8-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CLOTHERA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Fashion Straw Fedora/Golf/Bucket/Summer Hat and Caps for Men</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>329</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51Bft9svt+L._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/CLOTHERA-Fashion-Fedora-Trilby-Summer/dp/B09SB8VKP6/ref=sr_1_12?keywords=hats&amp;qid=1682361416&amp;sr=8-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>JAZAA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Bucket Hat for Women Men Teens Reversible Summer Beach Sun Hat Packable Fisherman Cap for Travel Outdoor Hiking</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>329</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71La0ZSFErL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/JAZAA-Reversible-Packable-Fisherman-Outdoor/dp/B0B3211LRM/ref=sr_1_17?keywords=hats&amp;qid=1682361416&amp;sr=8-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Panama Supreme Cap (White)</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>342</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41M7aMHZC2L._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SG-Panama-Supreme-Hat-White/dp/B00L7L092A/ref=sr_1_44?keywords=hats&amp;qid=1682361416&amp;sr=8-44</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Puma</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Men Cap</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>349</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61mhOKTZ-SL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Puma-2445802-Mens-Cap-2445802_White/dp/B0BNNPHLFC/ref=sr_1_35?keywords=hats&amp;qid=1682361416&amp;sr=8-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SM Korean Store BTS Logo Bucket Hat Unisex Black Cotton Fisher Cap, Round Cap Small Brim Cap for Teenagers Girls Wide Brim Adult Size</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>349</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71z627AuIyL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NDMyNjU0MjY0NDQxODIwOjE2ODIzNjE0MTc6c3BfYXRmOjIwMTM1MTA0ODQ0Mzk4OjowOjo&amp;url=%2FKorean-Bucket-Unisex-Cotton-Teenagers%2Fdp%2FB0BV6LL46M%2Fref%3Dsr_1_3_sspa%3Fkeywords%3Dhats%26qid%3D1682361416%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Puma</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Men Cap</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>349</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61mIOIsMFKL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Puma-2445702-Mens-Cap-2445702_Peacoat/dp/B0BNNCVPRK/ref=sr_1_54?keywords=hats&amp;qid=1682361416&amp;sr=8-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>teknik</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Cotton Canvas Cricket Panama Hat Extra Wide Brim</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>349</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/91XS0OLV5tL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Teknik-Cotton-Canvas-Cricket-Off-White/dp/B083FVFLMW/ref=sr_1_45?keywords=hats&amp;qid=1682361416&amp;sr=8-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Zacharias</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Unisex Cotton Fishermen Bucket Cap Hat (Pack of 2) (xent-87_Black &amp; White_Free Size)</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>359</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/718f-DqvFBS._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NDMyNjU0MjY0NDQxODIwOjE2ODIzNjE0MTc6c3BfYXRmOjIwMDM4MTA0MDY1Njk4OjowOjo&amp;url=%2FZacharias-Unisex-Fishermen-xent-87_Black-White_Free%2Fdp%2FB0972Z6PGS%2Fref%3Dsr_1_4_sspa%3Fkeywords%3Dhats%26qid%3D1682361416%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Puma</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Men's Baseball Cap</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>359</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71JhjTtmCbL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Puma-5291902-Cotton-Mens-White/dp/B016D48U8U/ref=sr_1_40?keywords=hats&amp;qid=1682361416&amp;sr=8-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Zipper-G Unisex Cotton Bucket Hat Trendy Lightweight Ou...</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Zipper-G Unisex Cotton Bucket Hat Trendy Lightweight Outdoor Hot Fun Summer Beach Vacation Headwear</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>379</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/ktg4ia80/hat/7/o/x/unisex-bucket-hat-free-size-1-solid-brown-trendy-lightweight-original-imag6sz3fyjpvwc8.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/zipper-g-unisex-cotton-bucket-hat-trendy-lightweight-outdoor-hot-fun-summer-beach-vacation-headwear/p/itmb3def5da9f882?pid=HATG6SZ3SDFZZZNE&amp;lid=LSTHATG6SZ3SDFZZZNEZFWH8O&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_28&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATG6SZ3SDFZZZNE.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ICW</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Women Long Brim Thread Knot Beach and Summer Sun Hat caps for Women &amp; Girls</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>380</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/91wZDXyWALL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/ICW-Women-Thread-Beach-Summer/dp/B0BYF9DX5B/ref=sr_1_42?keywords=hats&amp;qid=1682361416&amp;sr=8-42</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ICW</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Women Long Brim Ribbon Beach and Summer Sun Hat/caps for Women &amp; Girls</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>380</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/A1BKLLxTAUL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/ICW-Women-Ribbon-Beach-Summer/dp/B0B15L5YKP/ref=sr_1_7?keywords=hats&amp;qid=1682361416&amp;sr=8-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Urban_Made Women Summer Wide Brim Straw Hat with Long Ribbon, Fedora Sun Hat for Girls &amp; Women</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>385</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61Ta9Vk6nbL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Urban_Made-Summer-Ribben-Adjustable-Fedora/dp/B0BMW33J25/ref=sr_1_41?keywords=hats&amp;qid=1682361416&amp;sr=8-41</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Zipper-G Unisex Cotton Bucket Hat Trendy Lightweight Ou...</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Zipper-G Unisex Cotton Bucket Hat Trendy Lightweight Outdoor Hot Fun Summer Beach Vacation Headwear</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>389</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/ktg4ia80/hat/k/b/n/unisex-bucket-hat-free-size-1-solid-black-trendy-lightweight-original-imag6snxfeghmqtr.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/zipper-g-unisex-cotton-bucket-hat-trendy-lightweight-outdoor-hot-fun-summer-beach-vacation-headwear/p/itmd832b9ea5c910?pid=HATG6SNXH94WYRN9&amp;lid=LSTHATG6SNXH94WYRN9FOOX19&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_18&amp;otracker=search&amp;iid=en_Ur19pXIJ0%2BOBHqBGmNTEU0TdU%2BCToejHhuCI56v3yzC6mW3uCulGSGRloEUzgBcFUatqMMjfssmSJJYcBOcokw%3D%3D&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Oxolloxo</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Women Striped Reversible Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>395</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/oxolloxo/oxolloxo-women-black--white-striped-reversible-bucket-hat/15347724/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>PALAY</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Women's Cotton Bucket Hat (Pack Of 1) (1_Multicolor_Free Size)</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>396</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51N-VNX7ncL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/PALAY%C2%AE-Bucket-Foldable-Fisherman-Outdoor/dp/B08ZJ49XQ4/ref=sr_1_9?keywords=hats&amp;qid=1682361416&amp;sr=8-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Zipper-G</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Unisex Cotton Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>399</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/815xXP48F8L._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Zipper-G-Everyday-Lightweight-Vacation-Headwear/dp/B09FXLCQNC/ref=sr_1_28?keywords=hats&amp;qid=1682361416&amp;sr=8-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>VRITRAZ</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Printed Breathable Kids Hat for Boys and Girls, Summer Sun Protection (6 to 14 Years)</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>399</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81imN4WLMkL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/VRITRAZ-Printed-Breathable-Summer-Protection/dp/B0B4DYN53K/ref=sr_1_26?keywords=hats&amp;qid=1682361416&amp;sr=8-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ZACHARIAS Fedora Hat Pack of 2</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ZACHARIAS Fedora Hat Pack of 2</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>399</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/9/i/x/fedora-combo-brown-beige-po2-free-2-fedora-combo-brown-beige-po2-original-imagh7wwgzfyvfpx.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/zacharias-fedora-hat-pack-2/p/itm845a6c423c403?pid=HATGH7WWK4ZRB8D4&amp;lid=LSTHATGH7WWK4ZRB8D4A5TKAO&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_2&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGH7WWK4ZRB8D4.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DAVIDSON</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Unisex Baseball Cap</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>399</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51xBABZwBNL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NDMyNjU0MjY0NDQxODIwOjE2ODIzNjE0MTc6c3BfYnRmOjIwMTM1Njg2MTkwOTk4OjowOjo&amp;url=%2FDAVIDSON-Combo-Cotton-Baseball-Option-5%2Fdp%2FB09RQMYVVY%2Fref%3Dsr_1_57_sspa%3Fkeywords%3Dhats%26qid%3D1682361416%26sr%3D8-57-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>BIPTO</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Kullu Topi Himachali Woolen Cap for Men and Women (Unisex) Multicolour</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>399</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81OSjmKOgYL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NDMyNjU0MjY0NDQxODIwOjE2ODIzNjE0MTc6c3BfYnRmOjIwMDk4ODA3MzI5OTk4OjowOjo&amp;url=%2FBIPTO-Kullu-Himachali-Woolen-Unisex%2Fdp%2FB09XMSV3K4%2Fref%3Dsr_1_60_sspa%3Fkeywords%3Dhats%26qid%3D1682361416%26sr%3D8-60-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Boys Cotton Sun Hat</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>399</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/22371552/2023/3/17/2f0805e2-7e4e-45cc-9760-cde430557ea91679027027687Cottonsunhat1.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-boys-cotton-sun-hat/22371552/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ZACHARIAS Fedora</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ZACHARIAS Fedora</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>399</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/k6i7zww0/hat/v/u/x/free-size-fedora-58-black-po2-2-fedora-58-black-po2-fedora-58-original-imafzyjhp8hvgcr7.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/zacharias-fedora/p/itm68609574e71c1?pid=HATFZYJH25WQCVUX&amp;lid=LSTHATFZYJH25WQCVUXLLZXQV&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_29&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATFZYJH25WQCVUX.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ZACHARIAS Cotton Sun Field Hat</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ZACHARIAS Cotton Sun Field Hat</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>399</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/jwaztzk0/hat/y/w/n/dori-black-hat-free-1-dori-black-hat-dori-black-hat-zacharias-original-imafhyqvxzqpwqzu.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/zacharias-cotton-sun-field-hat/p/itmfhysyufsk2zku?pid=HATFHYR4AUN2KYWN&amp;lid=LSTHATFHYR4AUN2KYWNAIVBLZ&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_25&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATFHYR4AUN2KYWN.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Zacharias</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Men's Cotton Camouflage Hat (Pack of 1) (6168_Multicolor_Free Size)</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>399</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71Zktho+CqL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NDMyNjU0MjY0NDQxODIwOjE2ODIzNjE0MTc6c3BfbXRmOjIwMDMxNDUxNTI5Nzk4OjowOjo&amp;url=%2FZacharias-Mens-Cotton-Camouflage-6168_Multicolor_Free%2Fdp%2FB08XML5F8K%2Fref%3Dsr_1_21_sspa%3Fkeywords%3Dhats%26qid%3D1682361416%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SYGA Fancy Round Cap</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>SYGA Fancy Round Cap</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>399</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/k1tm1e80/hat/j/w/z/medium-straw-hats-for-baby-girls-pink-1-fancyroundcap-pink-original-imafhbgkxgehxum5.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/syga-fancy-round-cap/p/itm0767436538d19?pid=HATFHB8RYZS9QJWZ&amp;lid=LSTHATFHB8RYZS9QJWZZX4ZLI&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;spotlightTagId=TrendingId_clo%2Fqd8%2F9gi&amp;srno=s_1_15&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATFHB8RYZS9QJWZ.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SYGA Fisherman Cap</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>SYGA Fisherman Cap</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>399</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/l59xq4w0/hat/6/g/p/baby-bucket-hat-sun-beach-cap-fishermans-hats-spring-cute-dot-original-imagfzzdhbhjnjrb.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/syga-fisherman-cap/p/itm9c607e0d90db3?pid=HATGFZZDHDBNWFRU&amp;lid=LSTHATGFZZDHDBNWFRUQHVRKO&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_13&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGFZZDHDBNWFRU.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ZACHARIAS Cotton Camouflage Army Printed Hat</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ZACHARIAS Cotton Camouflage Army Printed Hat</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>399</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/kt39jm80/hat/n/h/y/classic-camo-721-hat-grey-free-size-1-classic-camo-721-hat-grey-original-imag6gefrhty6nhk.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/zacharias-cotton-camouflage-army-printed-hat/p/itm4266f4920b6bd?pid=HATG6GEBZAPY6HEQ&amp;lid=LSTHATG6GEBZAPY6HEQZUVCRG&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_10&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATG6GEBZAPY6HEQ.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ZACHARIAS Fedora Hat Pack of 2</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ZACHARIAS Fedora Hat Pack of 2</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>399</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/knan98w0/cap/s/1/j/free-hat-08-black-cream-stylathon-original-imag2yfumzymjnqy.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/zacharias-fedora-hat-pack-2/p/itmf610874dc1ae6?pid=HATGH7WSANMUU6FF&amp;lid=LSTHATGH7WSANMUU6FFLNQWDR&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_7&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGH7WSANMUU6FF.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>UrbanMade Women Durable Wide Brim with Black Ribbon Beach/Summer Straw Sun Hat, Women &amp; Girls UV Protection Foldable Hat (23.5", Free Size)</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>424</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51UNK0YghqL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/UrbanMade-Medium-Ribbon-Protection-Foldable/dp/B0BS1KR2H6/ref=sr_1_43?keywords=hats&amp;qid=1682361416&amp;sr=8-43</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Handcuffs</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Mens Womens Cap Adjustable Sports Caps</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>449</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41pI7283DRL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NDMyNjU0MjY0NDQxODIwOjE2ODIzNjE0MTc6c3BfYnRmOjIwMDIxNTUzNDM4MDk4OjowOjo&amp;url=%2FHandcuffs-Unisex-Drying-Protection-Sports%2Fdp%2FB09DVXX1VM%2Fref%3Dsr_1_59_sspa%3Fkeywords%3Dhats%26qid%3D1682361416%26sr%3D8-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Handcuffs</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Caps Military Cotton Casquette Cap Casual Hat for Mens &amp; Womens</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>449</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41J5WJrpUSL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Handcuffs-Military-Cotton-Casquette-Knitted/dp/B07VV5S5X1/ref=sr_1_46?keywords=hats&amp;qid=1682361416&amp;sr=8-46</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>HAUTE SAUCE by  Campus Sutra</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Women Solid Beret Hat</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>469</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/19131976/2022/7/16/c3183bea-a363-4bfa-9800-93967242beb61657956658045HAUTESAUCEbyCampusSutraWomenBlackSolidBeretHat1.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/haute-sauce-by--campus-sutra/haute-sauce-by--campus-sutra-women-black-solid-beret-hat/19131976/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>FabSeasons</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Women Sun Hat</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>499</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/fabseasons/fabseasons-women-yellow-sun-hat/20579918/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Sunkizzrs</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Bucket Hat for Men Round Cap for Men Wide Brim Sun Hat for Men Round Hat Men (Green)</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>499</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/91hstkzvyoL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Alitrade-Bucket-Round-Wide-Green/dp/B08TX33NDM/ref=sr_1_48?keywords=hats&amp;qid=1682361416&amp;sr=8-48</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>PALAY</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Bucket Hats for Women Little Daisy Print Cotton Fisherman Beach Hats Foldable Reversible Bucket Outdoor Casual Summer Sun Hat for Ladies Girls Cap</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>499</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71htdVq9DpL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/PALAY%C2%AE-Fisherman-Foldable-Reversible-Outdoor/dp/B09FPJ32TF/ref=sr_1_56?keywords=hats&amp;qid=1682361416&amp;sr=8-56</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Boldfit</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Head Caps for Men Unisex Mens Caps Branded with Adjustable Strap in Summer for Men, Caps Men for All Sports Cricket Caps for Men, Gym Caps for Men, Sports Caps for Men with Airholes</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>499</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41iOWsfnu6L._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Boldfit-Unisex-Adjustable-Summer-Airholes/dp/B0BJ92CN22/ref=sr_1_36?keywords=hats&amp;qid=1682361416&amp;sr=8-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>HASTHIP Plush Animal Bunny Dancing Ears Hat, Rabbit Mov...</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>HASTHIP Plush Animal Bunny Dancing Ears Hat, Rabbit Moving Ear Flaps and Press Paws</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>499</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/7/b/d/plush-animal-bunny-dancing-ears-hat-rabbit-moving-ear-flaps-and-original-imagbxvzebnha8zd.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/hasthip-plush-animal-bunny-dancing-ears-hat-rabbit-moving-ear-flaps-press-paws/p/itma553678bae79e?pid=HATGHBJ6XGTKZ3H5&amp;lid=LSTHATGHBJ6XGTKZ3H5DIVYGK&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_5&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGHBJ6XGTKZ3H5.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Boldfit</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Head Caps for Men Unisex Mens Caps Branded with Adjustable Strap in Summer for Men, Caps Men for All Sports Cricket Caps for Men, Gym Caps for Men, Sports Caps for Men with Airholes</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>499</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41iOWsfnu6L._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NDMyNjU0MjY0NDQxODIwOjE2ODIzNjE0MTc6c3BfYXRmOjIwMDkwMTEzNTUwMDk4OjowOjo&amp;url=%2FBoldfit-Unisex-Adjustable-Summer-Airholes%2Fdp%2FB0BJ92CN22%2Fref%3Dsr_1_1_sspa%3Fkeywords%3Dhats%26qid%3D1682361416%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Zacharias</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Men's Cotton Cowboy Hat (Pack of 1)</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>499</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71mbu8bQByL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NDMyNjU0MjY0NDQxODIwOjE2ODIzNjE0MTc6c3BfbXRmOjIwMDMxNDUxNTI1MTk4OjowOjo&amp;url=%2FZacharias-Cotton-Cowboy-6168_Light-Green_Free%2Fdp%2FB08XMPT9XX%2Fref%3Dsr_1_23_sspa%3Fkeywords%3Dhats%26qid%3D1682361416%26sr%3D8-23-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>HUSB</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Unisex Acrylic, Cotton Sun Hat</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>499</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61NMwjwNzhS._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NDMyNjU0MjY0NDQxODIwOjE2ODIzNjE0MTc6c3BfYXRmOjIwMTQzMzM2NTM4ODk4OjowOjo&amp;url=%2FHUSB-Adjustable-Protection-Activites-Baseball%2Fdp%2FB09XR5MF5Y%2Fref%3Dsr_1_2_sspa%3Fkeywords%3Dhats%26qid%3D1682361416%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Magic</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Men &amp; Womens Stylish Travellers Sun Hat Waterproof Fishing Hat Safari Hat Foldable Boonie Cap</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>499</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41sp3rPUiHL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Magic-Stylish-Travellers-Waterproof-Foldable/dp/B09XHHXMPZ/ref=sr_1_11?keywords=hats&amp;qid=1682361416&amp;sr=8-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>PALAY</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Women Sun Hat UV Protect Knitting Summer Wide Brim Hat Casual Travel Outdoor Beach Hat for Women (Beige)</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>535</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/618oAcZN3YL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/PALAY%C2%AE-Protect-Knitting-Summer-Outdoor/dp/B0B4VMRR7N/ref=sr_1_27?keywords=hats&amp;qid=1682361416&amp;sr=8-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PALAY</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Women's Mesh Hat (PA01_Pink_Free Size)</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>554</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61o1mI3XA9L._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/PALAY%C2%AE-Outdoor-Protection-Foldable-Fishing/dp/B083M114RK/ref=sr_1_14?keywords=hats&amp;qid=1682361416&amp;sr=8-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>GUSTAVE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Unisex Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>579</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/618epJyZ5cL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/GUSTAVE-Fishing-Protection-Waterproof-Adventure/dp/B07Q2Z39JC/ref=sr_1_29?keywords=hats&amp;qid=1682361416&amp;sr=8-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>gustave Mens Sun Hat Wide Brim Summer Sun Cap UV Protec...</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>gustave Mens Sun Hat Wide Brim Summer Sun Cap UV Protection Fishsing Hat Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>586</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/hat/w/3/x/sun-cap-uv-protection-fishsing-hat-foldable-bucket-hat-outdoor-original-imaggghbhymtdngc.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/gustave-mens-sun-hat-wide-brim-summer-cap-uv-protection-fishsing-bucket/p/itm217bf75baab9e?pid=HATGE92FF8HX8Z75&amp;lid=LSTHATGE92FF8HX8Z75HWMG5K&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_23&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATGE92FF8HX8Z75.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Oligitdi</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Hat (Grey)</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>599</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51tnrsbcJbL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Newlly-360-degree-Outdoor-Protection-Protector/dp/B07R9QP1NC/ref=sr_1_47?keywords=hats&amp;qid=1682361416&amp;sr=8-47</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>PALAY</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Women's synthetic Hat (Pack of 1) (PA01_Grey_Free Size)</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>624</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61i76uD6CBL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/PALAY%C2%AE-Womens-Sides-Garden-Foldable/dp/B081C3B3PM/ref=sr_1_30?keywords=hats&amp;qid=1682361416&amp;sr=8-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>Futurekart Sun hat for men</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>Futurekart Sun hat for men</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D95" t="n">
+        <v>659</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/kwfaj680/hat/9/u/b/sun-protection-cap-for-men-beach-fishing-hat-summer-hat-for-men-original-imag93frgfg9rfe2.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/futurekart-sun-hat-men/p/itm06734777a5241?pid=HATG93FRKPJF68VZ&amp;lid=LSTHATG93FRKPJF68VZFYGXI4&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_34&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATG93FRKPJF68VZ.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Futurekart Sun hat for men</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Futurekart Sun hat for men</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
         <v>679</v>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>https://rukminim1.flixcart.com/image/612/612/kwdv3bk0/hat/e/v/k/sun-protection-cap-for-men-beach-fishing-hat-summer-hat-for-men-original-imag92yms9dcaqef.jpeg?q=70</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/futurekart-sun-hat-men/p/itmcae66dfb96a50?pid=HATG92YMZPGBYUAR&amp;lid=LSTHATG92YMZPGBYUAR28YJGN&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;srno=s_1_36&amp;otracker=search&amp;iid=4f061d52-84b7-4878-8268-f828f0ee7d83.HATG92YMZPGBYUAR.SEARCH&amp;ssid=wx9ml49jb40000001682141806395&amp;qH=f4efffe441219c8e</t>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/futurekart-sun-hat-men/p/itmcae66dfb96a50?pid=HATG92YMZPGBYUAR&amp;lid=LSTHATG92YMZPGBYUAR28YJGN&amp;marketplace=FLIPKART&amp;q=hats&amp;store=clo%2Fqd8%2F9gi&amp;spotlightTagId=TrendingId_clo%2Fqd8%2F9gi&amp;srno=s_1_22&amp;otracker=search&amp;iid=0679b924-85dc-48ef-a8f3-e6f0a8133e4f.HATG92YMZPGBYUAR.SEARCH&amp;ssid=z36k3n17wg0000001682361408609&amp;qH=f4efffe441219c8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ONLY</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Women Solid Knitted Beret Hat</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>679</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/only/only-women-brown-solid-knitted-beret-hat/19453960/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Men Solid Rib-Knit Hat</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>699</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-men-solid-rib-knit-hat/20179190/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>HAUTE SAUCE by  Campus Sutra</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Women Striped Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>735</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/haute-sauce-by--campus-sutra/-haute-sauce-by--campus-sutra-women-blue-striped-bucket-hat/18429358/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ONLY</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Women Printed Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>764</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/only/only-women-pink-printed-bucket-hat/17491680/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Men Cotton Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>799</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-men-cotton-bucket-hat/21984648/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Men Cotton Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>799</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-men-cotton-bucket-hat/22447422/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Men Pure Cotton Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>799</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-men-pure-cotton-bucket-hat/22207488/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Women Straw Hat</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>799</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-women-straw-hat/22431148/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Women Straw Hat</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>799</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/11810054/2020/4/22/356e3e50-2719-453d-8524-ffc92d60d8991587546144152Strawhat1.jpg</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-women-beige-straw-hat/11810054/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Women Straw Hat</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>799</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-women-beige-straw-hat/18131724/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>FOREVER 21</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Women Textured Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>799</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/18729526/2022/6/14/60b248b1-d39e-40c0-a87c-d2f5f0efbd841655196792082FOREVER21WomenBrownTexturedBucketHat1.jpg</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/forever-21/-forever-21-women-brown-textured-bucket-hat/18729526/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Patterned Cotton Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>799</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-men-patterned-pure-cotton-bucket-hat/22199334/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>PALAY</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Fashion Women Wide Brim Hat for Girl Women UV Protection Summer Sun Hat with Ponytail Hole Back Neck Flap Cover</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>813</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61HS1DKz8EL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/PALAY%C2%AE-Fashion-Hat-UV-Protection-Ponytail/dp/B09YC4HC6H/ref=sr_1_16?keywords=hats&amp;qid=1682361416&amp;sr=8-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>PALAY</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Hat for Women Organza Fascinator Hat Elegant Ladies Top Hat for Tea Party Wedding Church Bridal Hat Wide Brim Sun Hat (Black)</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>835</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71iOu93eAOL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/PALAY%C2%AE-Organza-Fascinator-Elegant-Wedding/dp/B0BTHPF7D6/ref=sr_1_51?keywords=hats&amp;qid=1682361416&amp;sr=8-51</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Women Cotton Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>849</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/22337784/2023/3/15/9000cda5-eb24-439f-8e8f-25b1fd8797121678866141036Cottonbuckethat1.jpg</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-women-cotton-bucket-hat/22337784/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Women Cotton Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>849</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-women-cotton-bucket-hat/22337780/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>HAUTE SAUCE by  Campus Sutra</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Women Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>981</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21579436/2023/1/17/2d12e13f-fdd4-42d1-bfeb-2c7846881f171673944384632WomenBlueVintageHat1.jpg</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/haute-sauce-by--campus-sutra/haute-sauce-by--campus-sutra-women-bucket-hat/21579436/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>HAUTE SAUCE by  Campus Sutra</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Women Solid Bakerboy Cap</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>988</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/haute-sauce-by--campus-sutra/haute-sauce-by-campus-sutra-women-white-solid-bakerboy-cap/20299792/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>HAUTE SAUCE by  Campus Sutra</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Women Textured Beret Hat</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>994</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/haute-sauce-by--campus-sutra/haute-sauce-by-campus-sutra-women-white-textured-beret-hat/19236138/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Women Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>999</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-women-bucket-hat/22337782/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Women Cotton Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>999</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-women-cotton-bucket-hat/21265708/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Boys 2-Pack Cotton Sun Hats</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>999</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-boys-2-pack-pure-cotton-sun-hats/22371554/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Women Beach Straw Brown HAT</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>999</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61m2FYeQkPL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Women-Beach-Straw-Brown-HAT/dp/B0B6Q927SF/ref=sr_1_38?keywords=hats&amp;qid=1682361416&amp;sr=8-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Marks &amp; Spencer</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Girls Printed Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>999</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/marks--spencer/-marks--spencer-girls-printed-bucket-hat/22144726/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Men Straw Hat</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>999</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/22372110/2023/3/17/03d46900-8cb1-47e5-bed2-a9d329f188ca1679028401423Strawhat1.jpg</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-men-straw-hat/22372110/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Women Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>999</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-women-bucket-hat/21265706/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>FabSeasons</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Men Lightweight Fedora Cap</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>999</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/fabseasons/fabseasons-men-black-lightweight-vintage-cotton-fedora-cap/17394958/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Women Straw Hat</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>999</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/-hm-women-beige-straw-hat/11912184/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Marks &amp; Spencer</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Kids Pure Cotton Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>999</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/marks--spencer/marks--spencer-kids-printed-pure-cotton-bucket-hat/22144728/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>MANGO</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Women Cotton Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1039</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/20424060/2022/11/30/a55b1538-97bd-49f2-ade6-5993c8be48e51669807003926SangriaTeenGirlPurpleWhiteEthnicMotifReadytoWearCottonLeheng1.jpg</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/mango/mango-women-pure-cotton-bucket-hat/20424060/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Bipto</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Kullu Topi Himachali Woolen Cap for Men and Women- Pahadi Topi (Unisex)</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1099</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/91-V2cmZY4L._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NDMyNjU0MjY0NDQxODIwOjE2ODIzNjE0MTc6c3BfYnRmOjIwMTQ0OTM5MDQ1NTk4OjowOjo&amp;url=%2FBipto-Himachali-Woolen-Women-Pahadi%2Fdp%2FB0BWS565SJ%2Fref%3Dsr_1_58_sspa%3Fkeywords%3Dhats%26qid%3D1682361416%26sr%3D8-58-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>FabSeasons</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Long Brim Beach and Sun Hat for Women &amp; Girls</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1199</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/812YvE-9OLL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/FabSeasons-Long-Beach-Women-Girls/dp/B07WLYR59Z/ref=sr_1_20?keywords=hats&amp;qid=1682361416&amp;sr=8-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ToniQ</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Women Straw Sin Visor Sun Hats</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>1199</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/toniq/toniq-women-straw-sin-visor-sun-hats/21684064/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ToniQ</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Women Straw Sun Hat</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1279</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/11753438/2020/12/12/5c76f522-d7cb-4693-b090-41bb4772f82e1607776245991-ToniQ-Women-Cream-Coloured-Straw-Sun-Hat-9381607776245662-6.jpg</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/toniq/toniq-women-cream-coloured-straw-sun-hat/11753438/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>HAUTE SAUCE by  Campus Sutra</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Women Textured Breton Cap</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1285</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/haute-sauce-by--campus-sutra/haute-sauce-by--campus-sutra-women-white-textured-breton-cap/19236080/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Marks &amp; Spencer</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Kids Printed Cotton Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1299</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/marks--spencer/marks--spencer-kids-mickey-mouse-printed-pure-cotton-bucket-hat/22144724/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Women Felt Hat</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>1299</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-women-black-felt-hat/17465324/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Vero Moda</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Women Textured Sun Hat</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>1299</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/vero-moda/vero-moda-women-textured-sun-hat/21895776/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Men Terry Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1299</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-men-terry-bucket-hat/22235960/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Jack &amp; Jones</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Men Jacsteven Roll Hat</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1299</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/jack--jones/jack--jones-men-jacsteven-roll-hat/21252652/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Jack &amp; Jones</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Men Jacohio Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>1299</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/jack--jones/jack--jones-men-jacohio-solid-bucket-hat/21252654/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Men Reversible Bucket Hat</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>1299</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/22235962/2023/3/6/85ad70c1-036f-4684-b196-9dee7e030e851678100876470HMMenPureCottonReversibleBucketHat1.jpg</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-men-reversible-bucket-hat/22235962/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ToniQ</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Women Summer Beach Hats</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>1349</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/14401208/2021/6/8/f1ded7bc-e1de-4383-b4af-b25dd2291c431623126954271-ToniQ-Women-Brown--Navy-Blue-Printed-Black-Scarf-Summer-Beac-1.jpg</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/toniq/toniq-women-brown--navy-blue-printed-black-scarf-summer-beach-hats/14401208/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Women Straw Hat</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>1499</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/hm/hm-women-straw-hat/22102430/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Men's Cap</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>1699</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/6164WCB7WTL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Columbia-Unisex-Schooner-Bank-Cachalot/dp/B07DKZNPK4/ref=sr_1_53?keywords=hats&amp;qid=1682361416&amp;sr=8-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>The Tie Hub</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Men Fedora Hat</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/the-tie-hub/the-tie-hub-men-black-fedora-hat/20046158/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ToniQ</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Women Knitted Scarf  Beach Sun Hat</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>1919</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/toniq/toniq-women-knitted-scarf--beach-sun-hat/21684074/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Magideal</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Wedding Fascinator Hat Women Feather Flower Hair Band Church Tea Party Headdress</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1947</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61BE3QOVUhL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/MagiDeal-Wedding-Fascinator-Feather-Headdress/dp/B074HBGN1N/ref=sr_1_39?keywords=hats&amp;qid=1682361416&amp;sr=8-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Bora Bora Booney Hat</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/columbia/columbia-unisex-olive-green-bora-bora-booney-hat/1256197/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Bora Bora Booney</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/columbia/columbia-unisex-charcoal-grey-bora-bora-booney-hat/1567489/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/619IJ9GO1fL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Columbia-Mens-Synthetic-CU9107-028_Grill_One-Size/dp/B008FIFFY0/ref=sr_1_49?keywords=hats&amp;qid=1682361416&amp;sr=8-49</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>The Tie Hub</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Men Newsboy Flat Cap</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/the-tie-hub/the-tie-hub-men-grey-generic-newsboy-cap-hat/20046142/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>The Tie Hub</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Woman Cream Cowboy Hat</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/the-tie-hub/the-tie-hub-woman-cream-cowboy-cream-fedora-hat/20046140/buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>The Tie Hub</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Cowboy Solid Fedora Hat</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/hat/the-tie-hub/the-tie-hub-black-cowboy-solid-fedora-hat/20046152/buy</t>
         </is>
       </c>
     </row>
